--- a/PBD-Attachment.xlsx
+++ b/PBD-Attachment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\工作区\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\Minecraft\Curse\Instances\Parasites Blood Dawn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148B82EE-F71C-46A3-B695-34BED2760C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC430D3F-78AA-4039-AA61-0B1F82F0CC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5230,7 +5230,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000%"/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -5772,31 +5772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5821,6 +5797,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8909,7 +8909,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8920,21 +8920,21 @@
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="41.875" style="70" customWidth="1"/>
+    <col min="7" max="7" width="41.875" style="62" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.75" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="70" t="s">
         <v>662</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -8955,7 +8955,7 @@
       <c r="F2" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="62" t="s">
         <v>651</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -8969,7 +8969,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="63" t="s">
         <v>356</v>
       </c>
       <c r="C3" s="1">
@@ -8984,7 +8984,7 @@
       <c r="F3" s="1">
         <v>15000</v>
       </c>
-      <c r="G3" s="70">
+      <c r="G3" s="62">
         <f>SUM(F3+C3*50*(E3^(1/4))*(D3^(1/2)))</f>
         <v>17928.310092869266</v>
       </c>
@@ -8999,7 +8999,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="63" t="s">
         <v>653</v>
       </c>
       <c r="C4" s="1">
@@ -9014,7 +9014,7 @@
       <c r="F4" s="1">
         <v>15000</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="62">
         <f t="shared" ref="G4:G5" si="0">SUM(F4+C4*50*(E4^(1/4))*(D4^(1/2)))</f>
         <v>20450.199202763717</v>
       </c>
@@ -9029,7 +9029,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="63" t="s">
         <v>654</v>
       </c>
       <c r="C5" s="1">
@@ -9044,7 +9044,7 @@
       <c r="F5" s="1">
         <v>15000</v>
       </c>
-      <c r="G5" s="70">
+      <c r="G5" s="62">
         <f t="shared" si="0"/>
         <v>17928.310092869266</v>
       </c>
@@ -9059,7 +9059,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="69" t="s">
         <v>655</v>
       </c>
       <c r="C7" s="1">
@@ -9074,7 +9074,7 @@
       <c r="F7" s="1">
         <v>25000</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G7" s="62">
         <f>SUM(F7+C7*50*(E7^(1/2))*(D7^(1/2)))</f>
         <v>26673.32005306815</v>
       </c>
@@ -9089,7 +9089,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="69" t="s">
         <v>656</v>
       </c>
       <c r="C8" s="1">
@@ -9104,7 +9104,7 @@
       <c r="F8" s="1">
         <v>25000</v>
       </c>
-      <c r="G8" s="70">
+      <c r="G8" s="62">
         <f t="shared" ref="G8:G9" si="1">SUM(F8+C8*50*(E8^(1/2))*(D8^(1/2)))</f>
         <v>25646.741834119304</v>
       </c>
@@ -9119,7 +9119,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="69" t="s">
         <v>657</v>
       </c>
       <c r="C9" s="1">
@@ -9134,7 +9134,7 @@
       <c r="F9" s="1">
         <v>25000</v>
       </c>
-      <c r="G9" s="70">
+      <c r="G9" s="62">
         <f t="shared" si="1"/>
         <v>25494.974746830583</v>
       </c>
@@ -9149,7 +9149,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="64" t="s">
         <v>132</v>
       </c>
       <c r="C11" s="1">
@@ -9164,7 +9164,7 @@
       <c r="F11" s="1">
         <v>15000</v>
       </c>
-      <c r="G11" s="70">
+      <c r="G11" s="62">
         <f>SUM(F11+C11*50*(E11^(1/2))*(D11^(1/3)))</f>
         <v>16837.975406247318</v>
       </c>
@@ -9179,7 +9179,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="64" t="s">
         <v>133</v>
       </c>
       <c r="C12" s="1">
@@ -9194,7 +9194,7 @@
       <c r="F12" s="1">
         <v>15000</v>
       </c>
-      <c r="G12" s="70">
+      <c r="G12" s="62">
         <f t="shared" ref="G12:G16" si="2">SUM(F12+C12*50*(E12^(1/2))*(D12^(1/3)))</f>
         <v>16826.748539321747</v>
       </c>
@@ -9209,7 +9209,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="64" t="s">
         <v>134</v>
       </c>
       <c r="C13" s="1">
@@ -9224,7 +9224,7 @@
       <c r="F13" s="1">
         <v>15000</v>
       </c>
-      <c r="G13" s="70">
+      <c r="G13" s="62">
         <f t="shared" si="2"/>
         <v>16829.84072561378</v>
       </c>
@@ -9239,7 +9239,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="64" t="s">
         <v>135</v>
       </c>
       <c r="C14" s="1">
@@ -9254,7 +9254,7 @@
       <c r="F14" s="1">
         <v>15000</v>
       </c>
-      <c r="G14" s="70">
+      <c r="G14" s="62">
         <f t="shared" si="2"/>
         <v>16730.274090480816</v>
       </c>
@@ -9269,7 +9269,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="64" t="s">
         <v>136</v>
       </c>
       <c r="C15" s="1">
@@ -9284,7 +9284,7 @@
       <c r="F15" s="1">
         <v>15000</v>
       </c>
-      <c r="G15" s="70">
+      <c r="G15" s="62">
         <f>SUM(F15+C15*50*(E15^(1/2))*(D15^(1/3)))</f>
         <v>16311.131524278082</v>
       </c>
@@ -9299,7 +9299,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="64" t="s">
         <v>137</v>
       </c>
       <c r="C16" s="1">
@@ -9314,7 +9314,7 @@
       <c r="F16" s="1">
         <v>15000</v>
       </c>
-      <c r="G16" s="70">
+      <c r="G16" s="62">
         <f t="shared" si="2"/>
         <v>16652.356224889096</v>
       </c>
@@ -9329,7 +9329,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="65" t="s">
         <v>364</v>
       </c>
       <c r="C18" s="1">
@@ -9344,7 +9344,7 @@
       <c r="F18" s="1">
         <v>6000</v>
       </c>
-      <c r="G18" s="70">
+      <c r="G18" s="62">
         <f t="shared" ref="G18:G19" si="3">SUM(F18+C18*50*(E18^(1/4))*(D18^(1/2)))</f>
         <v>7248.5374350863449</v>
       </c>
@@ -9359,7 +9359,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="65" t="s">
         <v>366</v>
       </c>
       <c r="C19" s="1">
@@ -9374,7 +9374,7 @@
       <c r="F19" s="1">
         <v>6000</v>
       </c>
-      <c r="G19" s="70">
+      <c r="G19" s="62">
         <f t="shared" si="3"/>
         <v>7264.9110640673516</v>
       </c>
@@ -9389,7 +9389,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="66" t="s">
         <v>124</v>
       </c>
       <c r="C21" s="1">
@@ -9404,7 +9404,7 @@
       <c r="F21" s="1">
         <v>10000</v>
       </c>
-      <c r="G21" s="70">
+      <c r="G21" s="62">
         <f>SUM(F21+C21*500*(E21^(1/16))*((D21^(1/4))*2))</f>
         <v>22736.143413473052</v>
       </c>
@@ -9419,7 +9419,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="66" t="s">
         <v>125</v>
       </c>
       <c r="C22" s="1">
@@ -9434,7 +9434,7 @@
       <c r="F22" s="1">
         <v>10000</v>
       </c>
-      <c r="G22" s="70">
+      <c r="G22" s="62">
         <f t="shared" ref="G22:G26" si="4">SUM(F22+C22*500*(E22^(1/16))*((D22^(1/4))*2))</f>
         <v>16687.40304976422</v>
       </c>
@@ -9449,7 +9449,7 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="66" t="s">
         <v>126</v>
       </c>
       <c r="C23" s="1">
@@ -9464,7 +9464,7 @@
       <c r="F23" s="1">
         <v>10000</v>
       </c>
-      <c r="G23" s="70">
+      <c r="G23" s="62">
         <f t="shared" si="4"/>
         <v>27076.29936490925</v>
       </c>
@@ -9479,7 +9479,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="66" t="s">
         <v>127</v>
       </c>
       <c r="C24" s="1">
@@ -9494,7 +9494,7 @@
       <c r="F24" s="1">
         <v>10000</v>
       </c>
-      <c r="G24" s="70">
+      <c r="G24" s="62">
         <f t="shared" si="4"/>
         <v>30138.483432081292</v>
       </c>
@@ -9509,7 +9509,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="66" t="s">
         <v>128</v>
       </c>
       <c r="C25" s="1">
@@ -9524,7 +9524,7 @@
       <c r="F25" s="1">
         <v>10000</v>
       </c>
-      <c r="G25" s="70">
+      <c r="G25" s="62">
         <f t="shared" si="4"/>
         <v>43684.068037720077</v>
       </c>
@@ -9539,7 +9539,7 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="66" t="s">
         <v>129</v>
       </c>
       <c r="C26" s="1">
@@ -9554,7 +9554,7 @@
       <c r="F26" s="1">
         <v>10000</v>
       </c>
-      <c r="G26" s="70">
+      <c r="G26" s="62">
         <f t="shared" si="4"/>
         <v>43684.068037720077</v>
       </c>
@@ -9569,7 +9569,7 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="66" t="s">
         <v>130</v>
       </c>
       <c r="C27" s="1">
@@ -9584,7 +9584,7 @@
       <c r="F27" s="1">
         <v>10000</v>
       </c>
-      <c r="G27" s="70">
+      <c r="G27" s="62">
         <f>SUM(F27+C27*500*(E27^(1/16))*((D27^(1/4))*2))</f>
         <v>68723.830267177022</v>
       </c>
@@ -9599,7 +9599,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="67" t="s">
         <v>115</v>
       </c>
       <c r="C29" s="1">
@@ -9614,7 +9614,7 @@
       <c r="F29" s="1">
         <v>5000</v>
       </c>
-      <c r="G29" s="70">
+      <c r="G29" s="62">
         <f>SUM(F29+C29*50*(E29^(1/2))*(D29^(1/2)))</f>
         <v>6048.8088481701516</v>
       </c>
@@ -9629,7 +9629,7 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="67" t="s">
         <v>116</v>
       </c>
       <c r="C30" s="1">
@@ -9644,7 +9644,7 @@
       <c r="F30" s="1">
         <v>5000</v>
       </c>
-      <c r="G30" s="70">
+      <c r="G30" s="62">
         <f t="shared" ref="G30:G36" si="5">SUM(F30+C30*50*(E30^(1/2))*(D30^(1/2)))</f>
         <v>5887.4119674649428</v>
       </c>
@@ -9659,7 +9659,7 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="67" t="s">
         <v>117</v>
       </c>
       <c r="C31" s="1">
@@ -9674,7 +9674,7 @@
       <c r="F31" s="1">
         <v>5000</v>
       </c>
-      <c r="G31" s="70">
+      <c r="G31" s="62">
         <f t="shared" si="5"/>
         <v>6081.0874155219826</v>
       </c>
@@ -9689,7 +9689,7 @@
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="67" t="s">
         <v>118</v>
       </c>
       <c r="C32" s="1">
@@ -9704,7 +9704,7 @@
       <c r="F32" s="1">
         <v>5000</v>
       </c>
-      <c r="G32" s="70">
+      <c r="G32" s="62">
         <f t="shared" si="5"/>
         <v>6564.464764703891</v>
       </c>
@@ -9719,7 +9719,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="67" t="s">
         <v>119</v>
       </c>
       <c r="C33" s="1">
@@ -9734,7 +9734,7 @@
       <c r="F33" s="1">
         <v>5000</v>
       </c>
-      <c r="G33" s="70">
+      <c r="G33" s="62">
         <f t="shared" si="5"/>
         <v>5247.4873734152916</v>
       </c>
@@ -9749,7 +9749,7 @@
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="67" t="s">
         <v>120</v>
       </c>
       <c r="C34" s="1">
@@ -9764,7 +9764,7 @@
       <c r="F34" s="1">
         <v>5000</v>
       </c>
-      <c r="G34" s="70">
+      <c r="G34" s="62">
         <f t="shared" si="5"/>
         <v>5866.0254037844388</v>
       </c>
@@ -9779,7 +9779,7 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="67" t="s">
         <v>121</v>
       </c>
       <c r="C35" s="1">
@@ -9794,7 +9794,7 @@
       <c r="F35" s="1">
         <v>5000</v>
       </c>
-      <c r="G35" s="70">
+      <c r="G35" s="62">
         <f t="shared" si="5"/>
         <v>6711.1180555414639</v>
       </c>
@@ -9809,7 +9809,7 @@
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="75" t="s">
+      <c r="B36" s="67" t="s">
         <v>122</v>
       </c>
       <c r="C36" s="1">
@@ -9824,7 +9824,7 @@
       <c r="F36" s="1">
         <v>5000</v>
       </c>
-      <c r="G36" s="70">
+      <c r="G36" s="62">
         <f t="shared" si="5"/>
         <v>5354.9647869859773</v>
       </c>
@@ -9839,7 +9839,7 @@
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="68" t="s">
         <v>108</v>
       </c>
       <c r="C38" s="1">
@@ -9854,7 +9854,7 @@
       <c r="F38" s="1">
         <v>3000</v>
       </c>
-      <c r="G38" s="70">
+      <c r="G38" s="62">
         <f>SUM(F38+C38*90*(E38^(1/16))*(D38^(1/15)))</f>
         <v>3503.2896501377973</v>
       </c>
@@ -9869,7 +9869,7 @@
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="68" t="s">
         <v>109</v>
       </c>
       <c r="C39" s="1">
@@ -9884,7 +9884,7 @@
       <c r="F39" s="1">
         <v>3000</v>
       </c>
-      <c r="G39" s="70">
+      <c r="G39" s="62">
         <f t="shared" ref="G39:G42" si="6">SUM(F39+C39*90*(E39^(1/16))*(D39^(1/15)))</f>
         <v>3498.5421613477106</v>
       </c>
@@ -9899,7 +9899,7 @@
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="76" t="s">
+      <c r="B40" s="68" t="s">
         <v>110</v>
       </c>
       <c r="C40" s="1">
@@ -9914,7 +9914,7 @@
       <c r="F40" s="1">
         <v>3000</v>
       </c>
-      <c r="G40" s="70">
+      <c r="G40" s="62">
         <f t="shared" si="6"/>
         <v>3562.2815623687957</v>
       </c>
@@ -9929,7 +9929,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="76" t="s">
+      <c r="B41" s="68" t="s">
         <v>111</v>
       </c>
       <c r="C41" s="1">
@@ -9944,7 +9944,7 @@
       <c r="F41" s="1">
         <v>3000</v>
       </c>
-      <c r="G41" s="70">
+      <c r="G41" s="62">
         <f t="shared" si="6"/>
         <v>4212.2512015499178</v>
       </c>
@@ -9959,7 +9959,7 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="76" t="s">
+      <c r="B42" s="68" t="s">
         <v>112</v>
       </c>
       <c r="C42" s="1">
@@ -9974,7 +9974,7 @@
       <c r="F42" s="1">
         <v>3000</v>
       </c>
-      <c r="G42" s="70">
+      <c r="G42" s="62">
         <f t="shared" si="6"/>
         <v>4298.8405730891973</v>
       </c>
@@ -10002,8 +10002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7B5FA8-4B79-470C-812E-E18ABD7515C8}">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:A51"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12517,12 +12517,12 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="14"/>
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12557,21 +12557,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="66" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="66" t="s">
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="67"/>
-      <c r="I1" s="68"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77"/>
       <c r="K1" s="1" t="s">
         <v>144</v>
       </c>
@@ -12958,42 +12958,42 @@
       <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="65"/>
+      <c r="B16" s="74"/>
       <c r="C16" s="15">
         <f>SUM(C3:C15)</f>
         <v>65</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="65"/>
+      <c r="E16" s="74"/>
       <c r="F16" s="15">
         <f>SUM(F3:F15)</f>
         <v>165</v>
       </c>
-      <c r="G16" s="64" t="s">
+      <c r="G16" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="H16" s="65"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="44">
         <f>SUM(I3:I15)</f>
         <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="66" t="s">
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="67"/>
-      <c r="F17" s="68"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="77"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
@@ -13174,18 +13174,18 @@
       <c r="F31" s="29"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="65"/>
+      <c r="B32" s="74"/>
       <c r="C32" s="15">
         <f>SUM(C19:C31)</f>
         <v>70</v>
       </c>
-      <c r="D32" s="64" t="s">
+      <c r="D32" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="65"/>
+      <c r="E32" s="74"/>
       <c r="F32" s="44">
         <f>SUM(F19:F31)</f>
         <v>49</v>
@@ -14311,11 +14311,11 @@
       <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="69"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/PBD-Attachment.xlsx
+++ b/PBD-Attachment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\Minecraft\Curse\Instances\Parasites Blood Dawn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE4A8A0-B683-4FB4-B3E2-7A20E7543DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202D255F-BC19-47E7-9E54-068893D75E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="600" windowWidth="23625" windowHeight="14370" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="315" yWindow="525" windowWidth="23625" windowHeight="14370" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物品价值表" sheetId="9" r:id="rId1"/>
@@ -11887,8 +11887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C077EF-0E58-440D-B2F4-560A648184A9}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:C46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12772,8 +12772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475652E9-24DF-4B6D-BD05-8794C4FDBE6B}">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/PBD-Attachment.xlsx
+++ b/PBD-Attachment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\Minecraft\Curse\Instances\Parasites Blood Dawn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202D255F-BC19-47E7-9E54-068893D75E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F6CA76-0F8F-4903-AFD4-D7D416B5AE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="525" windowWidth="23625" windowHeight="14370" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="165" yWindow="1005" windowWidth="21600" windowHeight="13590" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物品价值表" sheetId="9" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="地下重要人物组织家族" sheetId="6" r:id="rId8"/>
     <sheet name="弹夹基准价格" sheetId="11" r:id="rId9"/>
     <sheet name="护甲属性" sheetId="12" r:id="rId10"/>
+    <sheet name="进化速度" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="705">
   <si>
     <t>奖励物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5317,6 +5318,74 @@
   </si>
   <si>
     <t>mw:ump_45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演化点数/天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵达天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进化所需天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3[假定]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演化点数/秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1kw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>350w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演化数值/天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入下一个阶段所需天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒增加击杀数拟定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5324,9 +5393,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0000%"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -5719,7 +5789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5925,24 +5995,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5992,6 +6044,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6285,7 +6370,7 @@
   <dimension ref="A1:BR95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:C19"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7789,6 +7874,596 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1F330B-A1C2-4EB7-A70F-7D470F187C5A}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="68"/>
+    <col min="2" max="2" width="23.25" style="95" customWidth="1"/>
+    <col min="3" max="4" width="17.25" style="68" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="86" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="86" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="68" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="68" customWidth="1"/>
+    <col min="9" max="9" width="9" style="68"/>
+    <col min="10" max="10" width="18.25" style="68" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="68" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.625" style="68" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="68"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="68" t="s">
+        <v>688</v>
+      </c>
+      <c r="B1" s="95" t="s">
+        <v>704</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>689</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>695</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>690</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>691</v>
+      </c>
+      <c r="H1" s="68" t="s">
+        <v>692</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>688</v>
+      </c>
+      <c r="J1" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="K1" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="L1" s="68" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="87">
+        <v>0</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="87" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" s="87"/>
+      <c r="E2" s="94">
+        <v>0</v>
+      </c>
+      <c r="F2" s="94"/>
+      <c r="G2" s="68">
+        <v>0</v>
+      </c>
+      <c r="I2" s="87">
+        <v>0</v>
+      </c>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87">
+        <v>0</v>
+      </c>
+      <c r="L2" s="87"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="87"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="H3" s="68" t="s">
+        <v>694</v>
+      </c>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="87">
+        <v>1</v>
+      </c>
+      <c r="B4" s="96">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C4" s="87">
+        <f t="shared" ref="C4" si="0">SUM((E6-E4)/H5)</f>
+        <v>11</v>
+      </c>
+      <c r="D4" s="87">
+        <f>SUM(C4/(20*60))</f>
+        <v>9.1666666666666667E-3</v>
+      </c>
+      <c r="E4" s="94">
+        <v>45</v>
+      </c>
+      <c r="F4" s="94"/>
+      <c r="G4" s="68">
+        <v>3</v>
+      </c>
+      <c r="I4" s="87">
+        <v>1</v>
+      </c>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="87"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="H5" s="68">
+        <f t="shared" ref="H5:H15" si="1">SUM(G6-G4)</f>
+        <v>5</v>
+      </c>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="87">
+        <v>2</v>
+      </c>
+      <c r="B6" s="96">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C6" s="87">
+        <f t="shared" ref="C6" si="2">SUM((E8-E6)/H7)</f>
+        <v>90</v>
+      </c>
+      <c r="D6" s="87">
+        <f t="shared" ref="D6" si="3">SUM(C6/(20*60))</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E6" s="94">
+        <v>100</v>
+      </c>
+      <c r="F6" s="94"/>
+      <c r="G6" s="68">
+        <v>8</v>
+      </c>
+      <c r="I6" s="87">
+        <v>2</v>
+      </c>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="87"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="H7" s="68">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="87">
+        <v>3</v>
+      </c>
+      <c r="B8" s="96">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="87">
+        <f t="shared" ref="C8" si="4">SUM((E10-E8)/H9)</f>
+        <v>750</v>
+      </c>
+      <c r="D8" s="87">
+        <f t="shared" ref="D8" si="5">SUM(C8/(20*60))</f>
+        <v>0.625</v>
+      </c>
+      <c r="E8" s="94">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="94" t="s">
+        <v>696</v>
+      </c>
+      <c r="G8" s="68">
+        <v>18</v>
+      </c>
+      <c r="I8" s="87">
+        <v>3</v>
+      </c>
+      <c r="J8" s="87">
+        <v>60</v>
+      </c>
+      <c r="K8" s="87">
+        <v>1000</v>
+      </c>
+      <c r="L8" s="68">
+        <f>SUM((K10-K8)/J8)</f>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="87"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="H9" s="68">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="87">
+        <v>4</v>
+      </c>
+      <c r="B10" s="96">
+        <v>3.25</v>
+      </c>
+      <c r="C10" s="87">
+        <f t="shared" ref="C10" si="6">SUM((E12-E10)/H11)</f>
+        <v>11600</v>
+      </c>
+      <c r="D10" s="87">
+        <f t="shared" ref="D10" si="7">SUM(C10/(20*60))</f>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="E10" s="94">
+        <v>10000</v>
+      </c>
+      <c r="F10" s="94" t="s">
+        <v>697</v>
+      </c>
+      <c r="G10" s="68">
+        <v>30</v>
+      </c>
+      <c r="I10" s="87">
+        <v>4</v>
+      </c>
+      <c r="J10" s="87">
+        <v>90</v>
+      </c>
+      <c r="K10" s="87">
+        <v>100000</v>
+      </c>
+      <c r="L10" s="68">
+        <f>SUM((K12-K10)/J10)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="87"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="H11" s="68">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="87">
+        <v>5</v>
+      </c>
+      <c r="B12" s="96">
+        <v>4.8650000000000002</v>
+      </c>
+      <c r="C12" s="87">
+        <f t="shared" ref="C12" si="8">SUM((E14-E12)/H13)</f>
+        <v>17500</v>
+      </c>
+      <c r="D12" s="87">
+        <f t="shared" ref="D12" si="9">SUM(C12/(20*60))</f>
+        <v>14.583333333333334</v>
+      </c>
+      <c r="E12" s="94">
+        <v>300000</v>
+      </c>
+      <c r="F12" s="94" t="s">
+        <v>700</v>
+      </c>
+      <c r="G12" s="68">
+        <v>55</v>
+      </c>
+      <c r="I12" s="87">
+        <v>5</v>
+      </c>
+      <c r="J12" s="87">
+        <v>120</v>
+      </c>
+      <c r="K12" s="87">
+        <v>1000000</v>
+      </c>
+      <c r="L12" s="68">
+        <f t="shared" ref="L12" si="10">SUM((K14-K12)/J12)</f>
+        <v>241666.66666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="87"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="H13" s="68">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="87">
+        <v>6</v>
+      </c>
+      <c r="B14" s="96">
+        <v>13.89</v>
+      </c>
+      <c r="C14" s="87">
+        <f t="shared" ref="C14" si="11">SUM((E16-E14)/H15)</f>
+        <v>50000</v>
+      </c>
+      <c r="D14" s="87">
+        <f t="shared" ref="D14" si="12">SUM(C14/(20*60))</f>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="E14" s="94">
+        <v>1000000</v>
+      </c>
+      <c r="F14" s="94" t="s">
+        <v>698</v>
+      </c>
+      <c r="G14" s="68">
+        <v>95</v>
+      </c>
+      <c r="I14" s="87">
+        <v>6</v>
+      </c>
+      <c r="J14" s="87">
+        <v>180</v>
+      </c>
+      <c r="K14" s="87">
+        <v>30000000</v>
+      </c>
+      <c r="L14" s="68">
+        <f t="shared" ref="L14" si="13">SUM((K16-K14)/J14)</f>
+        <v>388888.88888888888</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="87"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="H15" s="68">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="87">
+        <v>7</v>
+      </c>
+      <c r="B16" s="96">
+        <v>36.115000000000002</v>
+      </c>
+      <c r="C16" s="87">
+        <f t="shared" ref="C16" si="14">SUM((E18-E16)/H17)</f>
+        <v>130000</v>
+      </c>
+      <c r="D16" s="87">
+        <f t="shared" ref="D16" si="15">SUM(C16/(20*60))</f>
+        <v>108.33333333333333</v>
+      </c>
+      <c r="E16" s="94">
+        <v>3500000</v>
+      </c>
+      <c r="F16" s="94" t="s">
+        <v>701</v>
+      </c>
+      <c r="G16" s="68">
+        <v>145</v>
+      </c>
+      <c r="I16" s="87">
+        <v>7</v>
+      </c>
+      <c r="J16" s="87">
+        <v>300</v>
+      </c>
+      <c r="K16" s="87">
+        <v>100000000</v>
+      </c>
+      <c r="L16" s="68">
+        <f t="shared" ref="L16" si="16">SUM((K18-K16)/J16)</f>
+        <v>1666666.6666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="87"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="H17" s="68">
+        <f>SUM(G18-G16)</f>
+        <v>50</v>
+      </c>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="87">
+        <v>8</v>
+      </c>
+      <c r="B18" s="96">
+        <v>100</v>
+      </c>
+      <c r="C18" s="87" t="s">
+        <v>693</v>
+      </c>
+      <c r="D18" s="87">
+        <v>300</v>
+      </c>
+      <c r="E18" s="94">
+        <v>10000000</v>
+      </c>
+      <c r="F18" s="94" t="s">
+        <v>699</v>
+      </c>
+      <c r="G18" s="68">
+        <v>195</v>
+      </c>
+      <c r="I18" s="87">
+        <v>8</v>
+      </c>
+      <c r="J18" s="87">
+        <v>420</v>
+      </c>
+      <c r="K18" s="87">
+        <v>600000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="87"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="H19" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+    </row>
+  </sheetData>
+  <mergeCells count="82">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I12:I13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB8CA13-799D-4AC6-8EC5-43B5C4061116}">
   <dimension ref="A1:Q99"/>
@@ -9079,8 +9754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158AD5B2-CB80-46B6-BAFA-709B99694294}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H51"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9097,14 +9772,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="87" t="s">
         <v>639</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -10085,7 +10760,7 @@
         <v>3000</v>
       </c>
       <c r="G47" s="54">
-        <f t="shared" ref="G47:G51" si="6">SUM(F47+C47*90*(E47^(1/16))*(D47^(1/15)))</f>
+        <f t="shared" ref="G47:G50" si="6">SUM(F47+C47*90*(E47^(1/16))*(D47^(1/15)))</f>
         <v>3498.5421613477106</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -10181,7 +10856,7 @@
         <v>3000</v>
       </c>
       <c r="G51" s="54">
-        <f t="shared" si="6"/>
+        <f>SUM(F51+C51*90*(E51^(1/16))*(D51^(1/15)))</f>
         <v>3529.7421266914034</v>
       </c>
       <c r="H51" s="62" t="s">
@@ -11887,7 +12562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C077EF-0E58-440D-B2F4-560A648184A9}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
@@ -11897,7 +12572,7 @@
     <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="9" style="53"/>
-    <col min="7" max="7" width="24" style="85" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="79" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
@@ -11905,7 +12580,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="71" t="s">
         <v>182</v>
       </c>
       <c r="B1" s="65" t="s">
@@ -11917,58 +12592,58 @@
       <c r="D1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="85"/>
-      <c r="F1" s="86" t="s">
+      <c r="E1" s="79"/>
+      <c r="F1" s="80" t="s">
         <v>642</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="77" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="69" t="s">
         <v>177</v>
       </c>
       <c r="C2" s="13">
         <v>10</v>
       </c>
-      <c r="D2" s="80">
+      <c r="D2" s="74">
         <v>4600</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85" t="s">
+      <c r="E2" s="79"/>
+      <c r="F2" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="85">
+      <c r="G2" s="79">
         <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="69" t="s">
         <v>178</v>
       </c>
       <c r="C3" s="13">
         <v>100</v>
       </c>
-      <c r="D3" s="80">
+      <c r="D3" s="74">
         <v>4600</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85" t="s">
+      <c r="E3" s="79"/>
+      <c r="F3" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="79">
         <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="72" t="s">
         <v>183</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -11977,19 +12652,19 @@
       <c r="C4" s="13">
         <v>1000</v>
       </c>
-      <c r="D4" s="81">
+      <c r="D4" s="75">
         <v>720</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85" t="s">
+      <c r="E4" s="79"/>
+      <c r="F4" s="79" t="s">
         <v>678</v>
       </c>
-      <c r="G4" s="85">
+      <c r="G4" s="79">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="72" t="s">
         <v>184</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -11998,19 +12673,19 @@
       <c r="C5" s="13">
         <v>1200</v>
       </c>
-      <c r="D5" s="81">
+      <c r="D5" s="75">
         <v>700</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85" t="s">
+      <c r="E5" s="79"/>
+      <c r="F5" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="G5" s="85">
+      <c r="G5" s="79">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="72" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -12019,19 +12694,19 @@
       <c r="C6" s="13">
         <v>3200</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="75">
         <v>300</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85" t="s">
+      <c r="E6" s="79"/>
+      <c r="F6" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="G6" s="85">
+      <c r="G6" s="79">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="72" t="s">
         <v>186</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -12040,35 +12715,35 @@
       <c r="C7" s="13">
         <v>2000</v>
       </c>
-      <c r="D7" s="81">
+      <c r="D7" s="75">
         <v>600</v>
       </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85" t="s">
+      <c r="E7" s="79"/>
+      <c r="F7" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="85">
+      <c r="G7" s="79">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="69" t="s">
         <v>179</v>
       </c>
       <c r="C8" s="13">
         <v>1000</v>
       </c>
-      <c r="D8" s="80">
+      <c r="D8" s="74">
         <v>4600</v>
       </c>
-      <c r="E8" s="85"/>
+      <c r="E8" s="79"/>
       <c r="G8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="72" t="s">
         <v>185</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -12077,14 +12752,14 @@
       <c r="C9" s="13">
         <v>3000</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="75">
         <v>500</v>
       </c>
-      <c r="E9" s="85"/>
+      <c r="E9" s="79"/>
       <c r="G9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="72" t="s">
         <v>187</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -12093,94 +12768,94 @@
       <c r="C10" s="13">
         <v>6000</v>
       </c>
-      <c r="D10" s="81">
+      <c r="D10" s="75">
         <v>300</v>
       </c>
-      <c r="E10" s="85"/>
+      <c r="E10" s="79"/>
       <c r="G10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="72" t="s">
         <v>220</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="87">
+      <c r="C11" s="81">
         <v>3503</v>
       </c>
-      <c r="D11" s="81">
+      <c r="D11" s="75">
         <v>300</v>
       </c>
-      <c r="E11" s="85"/>
+      <c r="E11" s="79"/>
       <c r="G11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="72" t="s">
         <v>219</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="87">
+      <c r="C12" s="81">
         <v>3562</v>
       </c>
-      <c r="D12" s="81">
+      <c r="D12" s="75">
         <v>300</v>
       </c>
-      <c r="E12" s="85"/>
+      <c r="E12" s="79"/>
       <c r="G12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="72" t="s">
         <v>218</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="87">
+      <c r="C13" s="81">
         <v>3562</v>
       </c>
-      <c r="D13" s="81">
+      <c r="D13" s="75">
         <v>300</v>
       </c>
-      <c r="E13" s="85"/>
+      <c r="E13" s="79"/>
       <c r="G13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="70" t="s">
         <v>114</v>
       </c>
       <c r="C14" s="13">
         <v>4000</v>
       </c>
-      <c r="D14" s="81">
+      <c r="D14" s="75">
         <v>300</v>
       </c>
-      <c r="E14" s="85"/>
+      <c r="E14" s="79"/>
       <c r="G14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="72" t="s">
         <v>217</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="87">
+      <c r="C15" s="81">
         <v>5247</v>
       </c>
-      <c r="D15" s="81">
+      <c r="D15" s="75">
         <v>300</v>
       </c>
-      <c r="E15" s="85"/>
+      <c r="E15" s="79"/>
       <c r="G15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="72" t="s">
         <v>80</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -12189,14 +12864,14 @@
       <c r="C16" s="13">
         <v>4212</v>
       </c>
-      <c r="D16" s="81">
+      <c r="D16" s="75">
         <v>300</v>
       </c>
-      <c r="E16" s="85"/>
+      <c r="E16" s="79"/>
       <c r="G16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="72" t="s">
         <v>216</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -12205,14 +12880,14 @@
       <c r="C17" s="13">
         <v>4299</v>
       </c>
-      <c r="D17" s="81">
+      <c r="D17" s="75">
         <v>300</v>
       </c>
-      <c r="E17" s="85"/>
+      <c r="E17" s="79"/>
       <c r="G17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="72" t="s">
         <v>215</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -12221,14 +12896,14 @@
       <c r="C18" s="13">
         <v>6049</v>
       </c>
-      <c r="D18" s="81">
+      <c r="D18" s="75">
         <v>300</v>
       </c>
-      <c r="E18" s="85"/>
+      <c r="E18" s="79"/>
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="72" t="s">
         <v>214</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -12237,14 +12912,14 @@
       <c r="C19" s="13">
         <v>6564</v>
       </c>
-      <c r="D19" s="81">
+      <c r="D19" s="75">
         <v>300</v>
       </c>
-      <c r="E19" s="85"/>
+      <c r="E19" s="79"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="72" t="s">
         <v>213</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -12253,14 +12928,14 @@
       <c r="C20" s="13">
         <v>5355</v>
       </c>
-      <c r="D20" s="81">
+      <c r="D20" s="75">
         <v>300</v>
       </c>
-      <c r="E20" s="85"/>
+      <c r="E20" s="79"/>
       <c r="G20"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="72" t="s">
         <v>212</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -12269,14 +12944,14 @@
       <c r="C21" s="13">
         <v>5887</v>
       </c>
-      <c r="D21" s="81">
+      <c r="D21" s="75">
         <v>300</v>
       </c>
-      <c r="E21" s="85"/>
+      <c r="E21" s="79"/>
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="72" t="s">
         <v>211</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -12285,28 +12960,28 @@
       <c r="C22" s="13">
         <v>16687</v>
       </c>
-      <c r="D22" s="81">
+      <c r="D22" s="75">
         <v>50</v>
       </c>
-      <c r="E22" s="85"/>
+      <c r="E22" s="79"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="70" t="s">
         <v>113</v>
       </c>
       <c r="C23" s="13">
         <v>6000</v>
       </c>
-      <c r="D23" s="81">
+      <c r="D23" s="75">
         <v>300</v>
       </c>
-      <c r="E23" s="85"/>
+      <c r="E23" s="79"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="72" t="s">
         <v>82</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -12315,13 +12990,13 @@
       <c r="C24" s="13">
         <v>6711</v>
       </c>
-      <c r="D24" s="81">
+      <c r="D24" s="75">
         <v>300</v>
       </c>
-      <c r="E24" s="85"/>
+      <c r="E24" s="79"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="78" t="s">
+      <c r="A25" s="72" t="s">
         <v>210</v>
       </c>
       <c r="B25" s="13" t="s">
@@ -12330,28 +13005,28 @@
       <c r="C25" s="13">
         <v>6081</v>
       </c>
-      <c r="D25" s="81">
+      <c r="D25" s="75">
         <v>300</v>
       </c>
-      <c r="E25" s="85"/>
+      <c r="E25" s="79"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="69" t="s">
         <v>180</v>
       </c>
       <c r="C26" s="13">
         <v>10000</v>
       </c>
-      <c r="D26" s="80">
+      <c r="D26" s="74">
         <v>4600</v>
       </c>
-      <c r="E26" s="85"/>
+      <c r="E26" s="79"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="78" t="s">
+      <c r="A27" s="72" t="s">
         <v>209</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -12360,13 +13035,13 @@
       <c r="C27" s="13">
         <v>27076</v>
       </c>
-      <c r="D27" s="81">
+      <c r="D27" s="75">
         <v>50</v>
       </c>
-      <c r="E27" s="85"/>
+      <c r="E27" s="79"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="72" t="s">
         <v>208</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -12375,13 +13050,13 @@
       <c r="C28" s="13">
         <v>5866</v>
       </c>
-      <c r="D28" s="81">
+      <c r="D28" s="75">
         <v>300</v>
       </c>
-      <c r="E28" s="85"/>
+      <c r="E28" s="79"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="78" t="s">
+      <c r="A29" s="72" t="s">
         <v>207</v>
       </c>
       <c r="B29" s="13" t="s">
@@ -12390,13 +13065,13 @@
       <c r="C29" s="13">
         <v>30138</v>
       </c>
-      <c r="D29" s="81">
+      <c r="D29" s="75">
         <v>50</v>
       </c>
-      <c r="E29" s="85"/>
+      <c r="E29" s="79"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="72" t="s">
         <v>206</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -12405,13 +13080,13 @@
       <c r="C30" s="13">
         <v>16830</v>
       </c>
-      <c r="D30" s="81">
+      <c r="D30" s="75">
         <v>100</v>
       </c>
-      <c r="E30" s="85"/>
+      <c r="E30" s="79"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="78" t="s">
+      <c r="A31" s="72" t="s">
         <v>205</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -12420,13 +13095,13 @@
       <c r="C31" s="13">
         <v>25495</v>
       </c>
-      <c r="D31" s="81">
+      <c r="D31" s="75">
         <v>50</v>
       </c>
-      <c r="E31" s="85"/>
+      <c r="E31" s="79"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="78" t="s">
+      <c r="A32" s="72" t="s">
         <v>204</v>
       </c>
       <c r="B32" s="13" t="s">
@@ -12435,13 +13110,13 @@
       <c r="C32" s="13">
         <v>16730</v>
       </c>
-      <c r="D32" s="81">
+      <c r="D32" s="75">
         <v>100</v>
       </c>
-      <c r="E32" s="85"/>
+      <c r="E32" s="79"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="78" t="s">
+      <c r="A33" s="72" t="s">
         <v>203</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -12450,28 +13125,28 @@
       <c r="C33" s="13">
         <v>16838</v>
       </c>
-      <c r="D33" s="81">
+      <c r="D33" s="75">
         <v>100</v>
       </c>
-      <c r="E33" s="85"/>
+      <c r="E33" s="79"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="78" t="s">
+      <c r="A34" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="B34" s="76" t="s">
+      <c r="B34" s="70" t="s">
         <v>131</v>
       </c>
       <c r="C34" s="13">
         <v>18000</v>
       </c>
-      <c r="D34" s="81">
+      <c r="D34" s="75">
         <v>100</v>
       </c>
-      <c r="E34" s="85"/>
+      <c r="E34" s="79"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="78" t="s">
+      <c r="A35" s="72" t="s">
         <v>202</v>
       </c>
       <c r="B35" s="13" t="s">
@@ -12480,13 +13155,13 @@
       <c r="C35" s="13">
         <v>16311</v>
       </c>
-      <c r="D35" s="81">
+      <c r="D35" s="75">
         <v>100</v>
       </c>
-      <c r="E35" s="85"/>
+      <c r="E35" s="79"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="78" t="s">
+      <c r="A36" s="72" t="s">
         <v>201</v>
       </c>
       <c r="B36" s="13" t="s">
@@ -12495,13 +13170,13 @@
       <c r="C36" s="13">
         <v>16827</v>
       </c>
-      <c r="D36" s="81">
+      <c r="D36" s="75">
         <v>100</v>
       </c>
-      <c r="E36" s="85"/>
+      <c r="E36" s="79"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="78" t="s">
+      <c r="A37" s="72" t="s">
         <v>200</v>
       </c>
       <c r="B37" s="13" t="s">
@@ -12510,13 +13185,13 @@
       <c r="C37" s="13">
         <v>16652</v>
       </c>
-      <c r="D37" s="81">
+      <c r="D37" s="75">
         <v>100</v>
       </c>
-      <c r="E37" s="85"/>
+      <c r="E37" s="79"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="78" t="s">
+      <c r="A38" s="72" t="s">
         <v>199</v>
       </c>
       <c r="B38" s="13" t="s">
@@ -12525,43 +13200,43 @@
       <c r="C38" s="13">
         <v>22736</v>
       </c>
-      <c r="D38" s="81">
+      <c r="D38" s="75">
         <v>50</v>
       </c>
-      <c r="E38" s="85"/>
+      <c r="E38" s="79"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="78" t="s">
+      <c r="A39" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="70" t="s">
         <v>123</v>
       </c>
       <c r="C39" s="13">
         <v>35000</v>
       </c>
-      <c r="D39" s="81">
+      <c r="D39" s="75">
         <v>50</v>
       </c>
-      <c r="E39" s="85"/>
+      <c r="E39" s="79"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="78" t="s">
+      <c r="A40" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="B40" s="76" t="s">
+      <c r="B40" s="70" t="s">
         <v>138</v>
       </c>
       <c r="C40" s="13">
         <v>25000</v>
       </c>
-      <c r="D40" s="81">
+      <c r="D40" s="75">
         <v>50</v>
       </c>
-      <c r="E40" s="85"/>
+      <c r="E40" s="79"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="78" t="s">
+      <c r="A41" s="72" t="s">
         <v>198</v>
       </c>
       <c r="B41" s="13" t="s">
@@ -12570,13 +13245,13 @@
       <c r="C41" s="13">
         <v>26673</v>
       </c>
-      <c r="D41" s="81">
+      <c r="D41" s="75">
         <v>50</v>
       </c>
-      <c r="E41" s="85"/>
+      <c r="E41" s="79"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="78" t="s">
+      <c r="A42" s="72" t="s">
         <v>197</v>
       </c>
       <c r="B42" s="13" t="s">
@@ -12585,13 +13260,13 @@
       <c r="C42" s="13">
         <v>25647</v>
       </c>
-      <c r="D42" s="81">
+      <c r="D42" s="75">
         <v>50</v>
       </c>
-      <c r="E42" s="85"/>
+      <c r="E42" s="79"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="78" t="s">
+      <c r="A43" s="72" t="s">
         <v>196</v>
       </c>
       <c r="B43" s="13" t="s">
@@ -12600,13 +13275,13 @@
       <c r="C43" s="13">
         <v>43684</v>
       </c>
-      <c r="D43" s="81">
+      <c r="D43" s="75">
         <v>100</v>
       </c>
-      <c r="E43" s="85"/>
+      <c r="E43" s="79"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="78" t="s">
+      <c r="A44" s="72" t="s">
         <v>195</v>
       </c>
       <c r="B44" s="13" t="s">
@@ -12615,13 +13290,13 @@
       <c r="C44" s="13">
         <v>43684</v>
       </c>
-      <c r="D44" s="81">
+      <c r="D44" s="75">
         <v>100</v>
       </c>
-      <c r="E44" s="85"/>
+      <c r="E44" s="79"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="79" t="s">
+      <c r="A45" s="73" t="s">
         <v>194</v>
       </c>
       <c r="B45" s="64" t="s">
@@ -12630,19 +13305,19 @@
       <c r="C45" s="64">
         <v>68724</v>
       </c>
-      <c r="D45" s="82">
+      <c r="D45" s="76">
         <v>100</v>
       </c>
-      <c r="E45" s="85"/>
+      <c r="E45" s="79"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="88" t="s">
+      <c r="A46" s="82" t="s">
         <v>679</v>
       </c>
-      <c r="B46" s="88" t="s">
+      <c r="B46" s="82" t="s">
         <v>675</v>
       </c>
-      <c r="C46" s="89">
+      <c r="C46" s="83">
         <v>27195</v>
       </c>
       <c r="D46" s="34">
@@ -12656,7 +13331,7 @@
       <c r="B47" s="12" t="s">
         <v>669</v>
       </c>
-      <c r="C47" s="90">
+      <c r="C47" s="84">
         <v>16893</v>
       </c>
       <c r="D47" s="27">
@@ -12670,7 +13345,7 @@
       <c r="B48" s="12" t="s">
         <v>671</v>
       </c>
-      <c r="C48" s="90">
+      <c r="C48" s="84">
         <v>16897</v>
       </c>
       <c r="D48" s="27">
@@ -12684,7 +13359,7 @@
       <c r="B49" s="12" t="s">
         <v>673</v>
       </c>
-      <c r="C49" s="90">
+      <c r="C49" s="84">
         <v>16371</v>
       </c>
       <c r="D49" s="27">
@@ -12698,7 +13373,7 @@
       <c r="B50" s="12" t="s">
         <v>666</v>
       </c>
-      <c r="C50" s="90">
+      <c r="C50" s="84">
         <v>7842</v>
       </c>
       <c r="D50" s="27">
@@ -12712,7 +13387,7 @@
       <c r="B51" s="12" t="s">
         <v>667</v>
       </c>
-      <c r="C51" s="90">
+      <c r="C51" s="84">
         <v>7692</v>
       </c>
       <c r="D51" s="27">
@@ -12726,7 +13401,7 @@
       <c r="B52" s="12" t="s">
         <v>677</v>
       </c>
-      <c r="C52" s="90">
+      <c r="C52" s="84">
         <v>35469</v>
       </c>
       <c r="D52" s="27">
@@ -12740,7 +13415,7 @@
       <c r="B53" s="12" t="s">
         <v>664</v>
       </c>
-      <c r="C53" s="90">
+      <c r="C53" s="84">
         <v>5866</v>
       </c>
       <c r="D53" s="27">
@@ -12754,7 +13429,7 @@
       <c r="B54" s="63" t="s">
         <v>662</v>
       </c>
-      <c r="C54" s="91">
+      <c r="C54" s="85">
         <v>3530</v>
       </c>
       <c r="D54" s="67">
@@ -12795,21 +13470,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="71" t="s">
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="72"/>
-      <c r="I1" s="73"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="90"/>
       <c r="K1" s="1" t="s">
         <v>143</v>
       </c>
@@ -13317,19 +13992,19 @@
       <c r="V15"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="84"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="64">
         <f>AVERAGE(B3:B15)</f>
         <v>3767.5</v>
       </c>
       <c r="C16" s="64"/>
-      <c r="D16" s="84"/>
+      <c r="D16" s="78"/>
       <c r="E16" s="64">
         <f>AVERAGE(E3:E15)</f>
         <v>5958.4444444444443</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="84"/>
+      <c r="G16" s="78"/>
       <c r="H16" s="64">
         <f>AVERAGE(H3:H15)</f>
         <v>36024.75</v>
@@ -13343,16 +14018,16 @@
       <c r="V16"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="88" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="71" t="s">
+      <c r="B17" s="89"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="90"/>
       <c r="Q17"/>
       <c r="R17"/>
       <c r="S17"/>
@@ -13647,13 +14322,13 @@
       <c r="V31"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="84"/>
+      <c r="A32" s="78"/>
       <c r="B32" s="64">
         <f>AVERAGE(B19:B31)</f>
         <v>16705.444444444445</v>
       </c>
       <c r="C32" s="15"/>
-      <c r="D32" s="84"/>
+      <c r="D32" s="78"/>
       <c r="E32" s="64">
         <f>AVERAGE(E19:E31)</f>
         <v>26252.5</v>
@@ -14805,11 +15480,11 @@
       <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="74"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/PBD-Attachment.xlsx
+++ b/PBD-Attachment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\Minecraft\Curse\Instances\Parasites Blood Dawn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F6CA76-0F8F-4903-AFD4-D7D416B5AE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AA061E-6BA1-432A-BCBB-54EFD5683200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="1005" windowWidth="21600" windowHeight="13590" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4005" yWindow="1020" windowWidth="21600" windowHeight="13590" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物品价值表" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="712">
   <si>
     <t>奖励物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -942,9 +942,6 @@
     <t>srparasites:grunt</t>
   </si>
   <si>
-    <t>srparasites:kyphosis</t>
-  </si>
-  <si>
     <t>srparasites:marauder</t>
   </si>
   <si>
@@ -967,9 +964,6 @@
   </si>
   <si>
     <t>srparasites:pri_yelloweye</t>
-  </si>
-  <si>
-    <t>srparasites:sentry</t>
   </si>
   <si>
     <t>srparasites:sim_adventurer</t>
@@ -5386,6 +5380,42 @@
   </si>
   <si>
     <t>每秒增加击杀数拟定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威慑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srparasites:sentry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srparasites:kyphosis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>始祖级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯种级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6049,6 +6079,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6070,13 +6103,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6392,54 +6422,54 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B1" s="37" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I1" s="37" t="s">
         <v>10</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O1" s="37" t="s">
         <v>10</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B2" s="36">
         <v>1</v>
@@ -6451,13 +6481,13 @@
         <v>1</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I2" s="36">
         <v>4000</v>
       </c>
       <c r="N2" s="43" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="O2" s="36">
         <v>1000</v>
@@ -6466,7 +6496,7 @@
     </row>
     <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B3" s="36">
         <v>8</v>
@@ -6478,13 +6508,13 @@
         <v>7</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I3" s="36">
         <v>5000</v>
       </c>
       <c r="N3" s="43" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="O3" s="36">
         <v>1000</v>
@@ -6493,7 +6523,7 @@
     </row>
     <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B4" s="36">
         <v>64</v>
@@ -6505,13 +6535,13 @@
         <v>56</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I4" s="36">
         <v>5000</v>
       </c>
       <c r="N4" s="43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="O4" s="36">
         <v>1000</v>
@@ -6520,7 +6550,7 @@
     </row>
     <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B5" s="36">
         <v>20</v>
@@ -6532,13 +6562,13 @@
         <v>10</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I5" s="36">
         <v>6000</v>
       </c>
       <c r="N5" s="43" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="O5" s="36">
         <v>400</v>
@@ -6547,7 +6577,7 @@
     </row>
     <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B6" s="36">
         <v>200</v>
@@ -6559,13 +6589,13 @@
         <v>100</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I6" s="36">
         <v>8000</v>
       </c>
       <c r="N6" s="43" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="O6" s="36">
         <v>400</v>
@@ -6574,7 +6604,7 @@
     </row>
     <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B7" s="36">
         <v>400</v>
@@ -6586,13 +6616,13 @@
         <v>200</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I7" s="36">
         <v>10000</v>
       </c>
       <c r="N7" s="43" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="O7" s="36">
         <v>400</v>
@@ -6601,7 +6631,7 @@
     </row>
     <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B8" s="36">
         <v>300</v>
@@ -6613,13 +6643,13 @@
         <v>250</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I8" s="36">
         <v>14000</v>
       </c>
       <c r="N8" s="43" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="O8" s="36">
         <v>400</v>
@@ -6628,22 +6658,22 @@
     </row>
     <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B9" s="36">
         <v>4500</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I9" s="36">
         <v>12000</v>
       </c>
       <c r="N9" s="43" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="O9" s="36">
         <v>400</v>
@@ -6652,22 +6682,22 @@
     </row>
     <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="44" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B10" s="36">
         <v>700</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I10" s="36">
         <v>16000</v>
       </c>
       <c r="N10" s="43" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="O10" s="36">
         <v>400</v>
@@ -6676,22 +6706,22 @@
     </row>
     <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="44" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B11" s="36">
         <v>1500</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I11" s="36">
         <v>17000</v>
       </c>
       <c r="N11" s="43" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="O11" s="36">
         <v>1400</v>
@@ -6700,22 +6730,22 @@
     </row>
     <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="44" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B12" s="36">
         <v>500</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I12" s="36">
         <v>17500</v>
       </c>
       <c r="N12" s="43" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O12" s="36">
         <v>1400</v>
@@ -6724,13 +6754,13 @@
     </row>
     <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="H13" s="42" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I13" s="36">
         <v>18000</v>
       </c>
       <c r="N13" s="43" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="O13" s="36">
         <v>1200</v>
@@ -6739,13 +6769,13 @@
     </row>
     <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="H14" s="42" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I14" s="36">
         <v>18000</v>
       </c>
       <c r="N14" s="43" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O14" s="36">
         <v>1000</v>
@@ -6754,13 +6784,13 @@
     </row>
     <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="H15" s="45" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I15" s="45">
         <v>3000</v>
       </c>
       <c r="N15" s="43" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="O15" s="36">
         <v>800</v>
@@ -6769,13 +6799,13 @@
     </row>
     <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="H16" s="45" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I16" s="45">
         <v>3000</v>
       </c>
       <c r="N16" s="43" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="O16" s="36">
         <v>1000</v>
@@ -6784,13 +6814,13 @@
     </row>
     <row r="17" spans="8:16" ht="18" x14ac:dyDescent="0.2">
       <c r="H17" s="45" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I17" s="45">
         <v>3000</v>
       </c>
       <c r="N17" s="43" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="O17" s="36">
         <v>400</v>
@@ -6799,13 +6829,13 @@
     </row>
     <row r="18" spans="8:16" ht="18" x14ac:dyDescent="0.2">
       <c r="H18" s="45" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I18" s="45">
         <v>3000</v>
       </c>
       <c r="N18" s="43" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O18" s="36">
         <v>400</v>
@@ -6814,13 +6844,13 @@
     </row>
     <row r="19" spans="8:16" ht="18" x14ac:dyDescent="0.2">
       <c r="H19" s="45" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I19" s="45">
         <v>3000</v>
       </c>
       <c r="N19" s="43" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O19" s="36">
         <v>400</v>
@@ -6829,7 +6859,7 @@
     </row>
     <row r="20" spans="8:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="H20" s="45" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I20" s="45">
         <v>3000</v>
@@ -6838,7 +6868,7 @@
     </row>
     <row r="21" spans="8:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="H21" s="45" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I21" s="45">
         <v>3000</v>
@@ -6846,7 +6876,7 @@
     </row>
     <row r="22" spans="8:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="H22" s="45" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I22" s="45">
         <v>3000</v>
@@ -6854,7 +6884,7 @@
     </row>
     <row r="23" spans="8:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="H23" s="45" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I23" s="45">
         <v>3000</v>
@@ -6862,7 +6892,7 @@
     </row>
     <row r="24" spans="8:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="H24" s="45" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I24" s="45">
         <v>3000</v>
@@ -6870,7 +6900,7 @@
     </row>
     <row r="25" spans="8:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="H25" s="45" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I25" s="45">
         <v>3000</v>
@@ -6878,7 +6908,7 @@
     </row>
     <row r="26" spans="8:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="H26" s="45" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I26" s="45">
         <v>3000</v>
@@ -6886,7 +6916,7 @@
     </row>
     <row r="27" spans="8:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="H27" s="45" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I27" s="45">
         <v>3000</v>
@@ -6894,7 +6924,7 @@
     </row>
     <row r="28" spans="8:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="H28" s="45" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I28" s="45">
         <v>3000</v>
@@ -6902,7 +6932,7 @@
     </row>
     <row r="29" spans="8:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="H29" s="45" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I29" s="45">
         <v>3000</v>
@@ -6910,7 +6940,7 @@
     </row>
     <row r="48" spans="4:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="D48" s="36" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E48" s="39"/>
     </row>
@@ -6940,7 +6970,7 @@
     </row>
     <row r="55" spans="4:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="D55" s="36" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E55" s="39"/>
     </row>
@@ -6970,7 +7000,7 @@
     </row>
     <row r="62" spans="4:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="D62" s="36" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E62" s="39"/>
     </row>
@@ -6984,7 +7014,7 @@
     </row>
     <row r="65" spans="3:70" ht="17.25" x14ac:dyDescent="0.2">
       <c r="D65" s="36" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E65" s="39"/>
     </row>
@@ -7152,7 +7182,7 @@
       <c r="C74" s="39"/>
       <c r="D74" s="39"/>
       <c r="E74" s="36" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="3:70" ht="16.5" x14ac:dyDescent="0.2">
@@ -7290,30 +7320,30 @@
         <v>9</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>607</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>588</v>
+      </c>
+      <c r="E1" s="37" t="s">
         <v>589</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>609</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>590</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>591</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C2" s="1">
         <f>SUM(G4*D2*5)</f>
@@ -7332,10 +7362,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C3" s="1">
         <f>SUM(G4*D3*5)</f>
@@ -7354,10 +7384,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C4" s="1">
         <f>SUM(G4*D4*5)</f>
@@ -7380,10 +7410,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C5" s="1">
         <f>SUM(G7*D5*5)</f>
@@ -7402,10 +7432,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C6" s="1">
         <f>SUM(G7*D6*5)</f>
@@ -7424,10 +7454,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(G7*D7*5)</f>
@@ -7450,10 +7480,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C8" s="1">
         <f>SUM(G10*D8*5)</f>
@@ -7472,10 +7502,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C9" s="1">
         <f>SUM(G10*D9*5)</f>
@@ -7494,10 +7524,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C10" s="1">
         <f>SUM(G10*D10*5)</f>
@@ -7520,10 +7550,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C11" s="1">
         <f>SUM(G13*D11*5)</f>
@@ -7542,10 +7572,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C12" s="1">
         <f>SUM(G13*D12*5)</f>
@@ -7564,10 +7594,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C13" s="1">
         <f>SUM(G13*D13*5)</f>
@@ -7590,10 +7620,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C14" s="1">
         <f>SUM(G16*D14*5)</f>
@@ -7612,10 +7642,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C15" s="1">
         <f>SUM(G16*D15*5)</f>
@@ -7634,10 +7664,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C16" s="1">
         <f>SUM(G16*D16*5)</f>
@@ -7660,10 +7690,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C17" s="1">
         <f>SUM(G19*D17*5)</f>
@@ -7682,10 +7712,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C18" s="1">
         <f>SUM(G19*D18*5)</f>
@@ -7704,10 +7734,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C19" s="1">
         <f>SUM(G19*D19*5)</f>
@@ -7730,10 +7760,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C20" s="1">
         <f>SUM(G22*D20*5)</f>
@@ -7752,10 +7782,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C21" s="1">
         <f>SUM(G22*D21*5)</f>
@@ -7774,10 +7804,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C22" s="1">
         <f>SUM(G22*D22*5)</f>
@@ -7800,10 +7830,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C23" s="1">
         <f>SUM(G25*D23*5)</f>
@@ -7822,10 +7852,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C24" s="1">
         <f>SUM(G25*D24*5)</f>
@@ -7844,10 +7874,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C25" s="1">
         <f>SUM(G25*D25*5)</f>
@@ -7878,14 +7908,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1F330B-A1C2-4EB7-A70F-7D470F187C5A}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="68"/>
-    <col min="2" max="2" width="23.25" style="95" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="87" customWidth="1"/>
     <col min="3" max="4" width="17.25" style="68" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="86" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="86" customWidth="1"/>
@@ -7900,200 +7930,200 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="68" t="s">
+        <v>686</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>702</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>687</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="E1" s="86" t="s">
         <v>688</v>
       </c>
-      <c r="B1" s="95" t="s">
-        <v>704</v>
-      </c>
-      <c r="C1" s="68" t="s">
+      <c r="G1" s="68" t="s">
         <v>689</v>
       </c>
-      <c r="D1" s="68" t="s">
-        <v>695</v>
-      </c>
-      <c r="E1" s="86" t="s">
+      <c r="H1" s="68" t="s">
         <v>690</v>
       </c>
-      <c r="G1" s="68" t="s">
-        <v>691</v>
-      </c>
-      <c r="H1" s="68" t="s">
-        <v>692</v>
-      </c>
       <c r="I1" s="68" t="s">
+        <v>686</v>
+      </c>
+      <c r="J1" s="68" t="s">
+        <v>700</v>
+      </c>
+      <c r="K1" s="68" t="s">
         <v>688</v>
       </c>
-      <c r="J1" s="68" t="s">
-        <v>702</v>
-      </c>
-      <c r="K1" s="68" t="s">
-        <v>690</v>
-      </c>
       <c r="L1" s="68" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="87">
+      <c r="A2" s="88">
         <v>0</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="87" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="94">
+      <c r="B2" s="95"/>
+      <c r="C2" s="88" t="s">
+        <v>314</v>
+      </c>
+      <c r="D2" s="88"/>
+      <c r="E2" s="96">
         <v>0</v>
       </c>
-      <c r="F2" s="94"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="68">
         <v>0</v>
       </c>
-      <c r="I2" s="87">
+      <c r="I2" s="88">
         <v>0</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87">
+      <c r="J2" s="88"/>
+      <c r="K2" s="88">
         <v>0</v>
       </c>
-      <c r="L2" s="87"/>
+      <c r="L2" s="88"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="87"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
       <c r="H3" s="68" t="s">
-        <v>694</v>
-      </c>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
+        <v>692</v>
+      </c>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="88">
         <v>1</v>
       </c>
-      <c r="B4" s="96">
+      <c r="B4" s="95">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C4" s="87">
+      <c r="C4" s="88">
         <f t="shared" ref="C4" si="0">SUM((E6-E4)/H5)</f>
         <v>11</v>
       </c>
-      <c r="D4" s="87">
+      <c r="D4" s="88">
         <f>SUM(C4/(20*60))</f>
         <v>9.1666666666666667E-3</v>
       </c>
-      <c r="E4" s="94">
+      <c r="E4" s="96">
         <v>45</v>
       </c>
-      <c r="F4" s="94"/>
+      <c r="F4" s="96"/>
       <c r="G4" s="68">
         <v>3</v>
       </c>
-      <c r="I4" s="87">
+      <c r="I4" s="88">
         <v>1</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87">
+      <c r="J4" s="88"/>
+      <c r="K4" s="88">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="87"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
       <c r="H5" s="68">
         <f t="shared" ref="H5:H15" si="1">SUM(G6-G4)</f>
         <v>5</v>
       </c>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="87">
+      <c r="A6" s="88">
         <v>2</v>
       </c>
-      <c r="B6" s="96">
+      <c r="B6" s="95">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C6" s="87">
+      <c r="C6" s="88">
         <f t="shared" ref="C6" si="2">SUM((E8-E6)/H7)</f>
         <v>90</v>
       </c>
-      <c r="D6" s="87">
+      <c r="D6" s="88">
         <f t="shared" ref="D6" si="3">SUM(C6/(20*60))</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E6" s="94">
+      <c r="E6" s="96">
         <v>100</v>
       </c>
-      <c r="F6" s="94"/>
+      <c r="F6" s="96"/>
       <c r="G6" s="68">
         <v>8</v>
       </c>
-      <c r="I6" s="87">
+      <c r="I6" s="88">
         <v>2</v>
       </c>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87">
+      <c r="J6" s="88"/>
+      <c r="K6" s="88">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="87"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
       <c r="H7" s="68">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="87">
+      <c r="A8" s="88">
         <v>3</v>
       </c>
-      <c r="B8" s="96">
+      <c r="B8" s="95">
         <v>0.2</v>
       </c>
-      <c r="C8" s="87">
+      <c r="C8" s="88">
         <f t="shared" ref="C8" si="4">SUM((E10-E8)/H9)</f>
         <v>750</v>
       </c>
-      <c r="D8" s="87">
+      <c r="D8" s="88">
         <f t="shared" ref="D8" si="5">SUM(C8/(20*60))</f>
         <v>0.625</v>
       </c>
-      <c r="E8" s="94">
+      <c r="E8" s="96">
         <v>1000</v>
       </c>
-      <c r="F8" s="94" t="s">
-        <v>696</v>
+      <c r="F8" s="96" t="s">
+        <v>694</v>
       </c>
       <c r="G8" s="68">
         <v>18</v>
       </c>
-      <c r="I8" s="87">
+      <c r="I8" s="88">
         <v>3</v>
       </c>
-      <c r="J8" s="87">
+      <c r="J8" s="88">
         <v>60</v>
       </c>
-      <c r="K8" s="87">
+      <c r="K8" s="88">
         <v>1000</v>
       </c>
       <c r="L8" s="68">
@@ -8102,51 +8132,51 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="87"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
       <c r="H9" s="68">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="87">
+      <c r="A10" s="88">
         <v>4</v>
       </c>
-      <c r="B10" s="96">
+      <c r="B10" s="95">
         <v>3.25</v>
       </c>
-      <c r="C10" s="87">
+      <c r="C10" s="88">
         <f t="shared" ref="C10" si="6">SUM((E12-E10)/H11)</f>
         <v>11600</v>
       </c>
-      <c r="D10" s="87">
+      <c r="D10" s="88">
         <f t="shared" ref="D10" si="7">SUM(C10/(20*60))</f>
         <v>9.6666666666666661</v>
       </c>
-      <c r="E10" s="94">
+      <c r="E10" s="96">
         <v>10000</v>
       </c>
-      <c r="F10" s="94" t="s">
-        <v>697</v>
+      <c r="F10" s="96" t="s">
+        <v>695</v>
       </c>
       <c r="G10" s="68">
         <v>30</v>
       </c>
-      <c r="I10" s="87">
+      <c r="I10" s="88">
         <v>4</v>
       </c>
-      <c r="J10" s="87">
+      <c r="J10" s="88">
         <v>90</v>
       </c>
-      <c r="K10" s="87">
+      <c r="K10" s="88">
         <v>100000</v>
       </c>
       <c r="L10" s="68">
@@ -8155,51 +8185,51 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="87"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
       <c r="H11" s="68">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="87">
+      <c r="A12" s="88">
         <v>5</v>
       </c>
-      <c r="B12" s="96">
+      <c r="B12" s="95">
         <v>4.8650000000000002</v>
       </c>
-      <c r="C12" s="87">
+      <c r="C12" s="88">
         <f t="shared" ref="C12" si="8">SUM((E14-E12)/H13)</f>
         <v>17500</v>
       </c>
-      <c r="D12" s="87">
+      <c r="D12" s="88">
         <f t="shared" ref="D12" si="9">SUM(C12/(20*60))</f>
         <v>14.583333333333334</v>
       </c>
-      <c r="E12" s="94">
+      <c r="E12" s="96">
         <v>300000</v>
       </c>
-      <c r="F12" s="94" t="s">
-        <v>700</v>
+      <c r="F12" s="96" t="s">
+        <v>698</v>
       </c>
       <c r="G12" s="68">
         <v>55</v>
       </c>
-      <c r="I12" s="87">
+      <c r="I12" s="88">
         <v>5</v>
       </c>
-      <c r="J12" s="87">
+      <c r="J12" s="88">
         <v>120</v>
       </c>
-      <c r="K12" s="87">
+      <c r="K12" s="88">
         <v>1000000</v>
       </c>
       <c r="L12" s="68">
@@ -8208,51 +8238,51 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="87"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
+      <c r="A13" s="88"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
       <c r="H13" s="68">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="87">
+      <c r="A14" s="88">
         <v>6</v>
       </c>
-      <c r="B14" s="96">
+      <c r="B14" s="95">
         <v>13.89</v>
       </c>
-      <c r="C14" s="87">
+      <c r="C14" s="88">
         <f t="shared" ref="C14" si="11">SUM((E16-E14)/H15)</f>
         <v>50000</v>
       </c>
-      <c r="D14" s="87">
+      <c r="D14" s="88">
         <f t="shared" ref="D14" si="12">SUM(C14/(20*60))</f>
         <v>41.666666666666664</v>
       </c>
-      <c r="E14" s="94">
+      <c r="E14" s="96">
         <v>1000000</v>
       </c>
-      <c r="F14" s="94" t="s">
-        <v>698</v>
+      <c r="F14" s="96" t="s">
+        <v>696</v>
       </c>
       <c r="G14" s="68">
         <v>95</v>
       </c>
-      <c r="I14" s="87">
+      <c r="I14" s="88">
         <v>6</v>
       </c>
-      <c r="J14" s="87">
+      <c r="J14" s="88">
         <v>180</v>
       </c>
-      <c r="K14" s="87">
+      <c r="K14" s="88">
         <v>30000000</v>
       </c>
       <c r="L14" s="68">
@@ -8261,51 +8291,51 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="87"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
       <c r="H15" s="68">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="87">
+      <c r="A16" s="88">
         <v>7</v>
       </c>
-      <c r="B16" s="96">
+      <c r="B16" s="95">
         <v>36.115000000000002</v>
       </c>
-      <c r="C16" s="87">
+      <c r="C16" s="88">
         <f t="shared" ref="C16" si="14">SUM((E18-E16)/H17)</f>
         <v>130000</v>
       </c>
-      <c r="D16" s="87">
+      <c r="D16" s="88">
         <f t="shared" ref="D16" si="15">SUM(C16/(20*60))</f>
         <v>108.33333333333333</v>
       </c>
-      <c r="E16" s="94">
+      <c r="E16" s="96">
         <v>3500000</v>
       </c>
-      <c r="F16" s="94" t="s">
-        <v>701</v>
+      <c r="F16" s="96" t="s">
+        <v>699</v>
       </c>
       <c r="G16" s="68">
         <v>145</v>
       </c>
-      <c r="I16" s="87">
+      <c r="I16" s="88">
         <v>7</v>
       </c>
-      <c r="J16" s="87">
+      <c r="J16" s="88">
         <v>300</v>
       </c>
-      <c r="K16" s="87">
+      <c r="K16" s="88">
         <v>100000000</v>
       </c>
       <c r="L16" s="68">
@@ -8314,77 +8344,125 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="87"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
       <c r="H17" s="68">
         <f>SUM(G18-G16)</f>
         <v>50</v>
       </c>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="87">
+      <c r="A18" s="88">
         <v>8</v>
       </c>
-      <c r="B18" s="96">
+      <c r="B18" s="95">
         <v>100</v>
       </c>
-      <c r="C18" s="87" t="s">
-        <v>693</v>
-      </c>
-      <c r="D18" s="87">
+      <c r="C18" s="88" t="s">
+        <v>691</v>
+      </c>
+      <c r="D18" s="88">
         <v>300</v>
       </c>
-      <c r="E18" s="94">
+      <c r="E18" s="96">
         <v>10000000</v>
       </c>
-      <c r="F18" s="94" t="s">
-        <v>699</v>
+      <c r="F18" s="96" t="s">
+        <v>697</v>
       </c>
       <c r="G18" s="68">
         <v>195</v>
       </c>
-      <c r="I18" s="87">
+      <c r="I18" s="88">
         <v>8</v>
       </c>
-      <c r="J18" s="87">
+      <c r="J18" s="88">
         <v>420</v>
       </c>
-      <c r="K18" s="87">
+      <c r="K18" s="88">
         <v>600000000</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="87"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
       <c r="H19" s="68" t="s">
-        <v>693</v>
-      </c>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
+        <v>691</v>
+      </c>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
@@ -8401,63 +8479,15 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8488,66 +8518,66 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>364</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="E1" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>366</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>367</v>
-      </c>
       <c r="G1" s="48" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H1" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="J1" s="40" t="s">
         <v>364</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="K1" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="J1" s="40" t="s">
-        <v>366</v>
-      </c>
-      <c r="K1" s="40" t="s">
-        <v>367</v>
-      </c>
       <c r="M1" s="48" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N1" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="P1" s="40" t="s">
         <v>364</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="Q1" s="40" t="s">
         <v>365</v>
-      </c>
-      <c r="P1" s="40" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q1" s="40" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="46" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B2" s="36">
         <v>3000</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H2" s="36">
         <v>1</v>
       </c>
       <c r="M2" s="50" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="N2" s="36">
         <v>500</v>
@@ -8555,19 +8585,19 @@
     </row>
     <row r="3" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B3" s="36">
         <v>500</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H3" s="36">
         <v>2</v>
       </c>
       <c r="M3" s="50" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="N3" s="36">
         <v>500</v>
@@ -8575,20 +8605,20 @@
     </row>
     <row r="4" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B4" s="36">
         <v>3000</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H4" s="36">
         <v>1</v>
       </c>
       <c r="J4" s="36"/>
       <c r="M4" s="50" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="N4" s="36">
         <v>500</v>
@@ -8596,22 +8626,22 @@
     </row>
     <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="46" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B5" s="36">
         <v>3000</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H5" s="36">
         <v>1.5</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M5" s="50" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="N5" s="36">
         <v>500</v>
@@ -8619,20 +8649,20 @@
     </row>
     <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="46" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B6" s="36">
         <v>500</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H6" s="36">
         <v>1.5</v>
       </c>
       <c r="J6" s="36"/>
       <c r="M6" s="50" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="N6" s="36">
         <v>500</v>
@@ -8640,20 +8670,20 @@
     </row>
     <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="46" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B7" s="36">
         <v>4000</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H7" s="36">
         <v>6</v>
       </c>
       <c r="J7" s="36"/>
       <c r="M7" s="50" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="N7" s="36">
         <v>500</v>
@@ -8661,20 +8691,20 @@
     </row>
     <row r="8" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="46" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B8" s="36">
         <v>3000</v>
       </c>
       <c r="G8" s="49" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H8" s="36">
         <v>30</v>
       </c>
       <c r="J8" s="36"/>
       <c r="M8" s="50" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="N8" s="36">
         <v>500</v>
@@ -8682,20 +8712,20 @@
     </row>
     <row r="9" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="46" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B9" s="36">
         <v>3000</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H9" s="36">
         <v>50</v>
       </c>
       <c r="J9" s="36"/>
       <c r="M9" s="50" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="N9" s="36">
         <v>500</v>
@@ -8703,20 +8733,20 @@
     </row>
     <row r="10" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="46" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B10" s="36">
         <v>3000</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H10" s="36">
         <v>1</v>
       </c>
       <c r="J10" s="36"/>
       <c r="M10" s="50" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="N10" s="36">
         <v>500</v>
@@ -8724,22 +8754,22 @@
     </row>
     <row r="11" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="46" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B11" s="36">
         <v>3000</v>
       </c>
       <c r="G11" s="49" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H11" s="36">
         <v>1</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M11" s="50" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="N11" s="36">
         <v>500</v>
@@ -8747,20 +8777,20 @@
     </row>
     <row r="12" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B12" s="36">
         <v>3000</v>
       </c>
       <c r="G12" s="49" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H12" s="36">
         <v>1</v>
       </c>
       <c r="J12" s="36"/>
       <c r="M12" s="50" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="N12" s="36">
         <v>500</v>
@@ -8768,20 +8798,20 @@
     </row>
     <row r="13" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="46" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B13" s="36">
         <v>500</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H13" s="36">
         <v>1</v>
       </c>
       <c r="J13" s="36"/>
       <c r="M13" s="50" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="N13" s="36">
         <v>500</v>
@@ -8789,20 +8819,20 @@
     </row>
     <row r="14" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="46" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B14" s="36">
         <v>500</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H14" s="36">
         <v>1.5</v>
       </c>
       <c r="J14" s="36"/>
       <c r="M14" s="50" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="N14" s="36">
         <v>500</v>
@@ -8810,20 +8840,20 @@
     </row>
     <row r="15" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="46" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B15" s="36">
         <v>3000</v>
       </c>
       <c r="G15" s="49" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H15" s="36">
         <v>2</v>
       </c>
       <c r="J15" s="36"/>
       <c r="M15" s="50" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N15" s="36">
         <v>500</v>
@@ -8831,20 +8861,20 @@
     </row>
     <row r="16" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="46" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B16" s="36">
         <v>500</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H16" s="36">
         <v>2.5</v>
       </c>
       <c r="J16" s="36"/>
       <c r="M16" s="50" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="N16" s="36">
         <v>500</v>
@@ -8852,14 +8882,14 @@
     </row>
     <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="46" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B17" s="36">
         <v>500</v>
       </c>
       <c r="J17" s="36"/>
       <c r="M17" s="50" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="N17" s="36">
         <v>500</v>
@@ -8867,14 +8897,14 @@
     </row>
     <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="46" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B18" s="36">
         <v>3000</v>
       </c>
       <c r="J18" s="36"/>
       <c r="M18" s="50" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="N18" s="36">
         <v>500</v>
@@ -8882,14 +8912,14 @@
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="46" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B19" s="36">
         <v>500</v>
       </c>
       <c r="J19" s="36"/>
       <c r="M19" s="50" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="N19" s="36">
         <v>500</v>
@@ -8897,14 +8927,14 @@
     </row>
     <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="46" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B20" s="36">
         <v>500</v>
       </c>
       <c r="J20" s="36"/>
       <c r="M20" s="50" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="N20" s="36">
         <v>500</v>
@@ -8912,14 +8942,14 @@
     </row>
     <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="46" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B21" s="36">
         <v>500</v>
       </c>
       <c r="J21" s="36"/>
       <c r="M21" s="50" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="N21" s="36">
         <v>500</v>
@@ -8927,14 +8957,14 @@
     </row>
     <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="46" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B22" s="36">
         <v>3000</v>
       </c>
       <c r="J22" s="36"/>
       <c r="M22" s="50" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="N22" s="36">
         <v>500</v>
@@ -8942,14 +8972,14 @@
     </row>
     <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="46" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B23" s="36">
         <v>3000</v>
       </c>
       <c r="J23" s="36"/>
       <c r="M23" s="50" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="N23" s="36">
         <v>500</v>
@@ -8957,14 +8987,14 @@
     </row>
     <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="46" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B24" s="36">
         <v>500</v>
       </c>
       <c r="J24" s="36"/>
       <c r="M24" s="50" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="N24" s="36">
         <v>500</v>
@@ -8972,14 +9002,14 @@
     </row>
     <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="46" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B25" s="36">
         <v>3000</v>
       </c>
       <c r="J25" s="36"/>
       <c r="M25" s="50" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="N25" s="36">
         <v>500</v>
@@ -8987,14 +9017,14 @@
     </row>
     <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="46" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B26" s="36">
         <v>500</v>
       </c>
       <c r="J26" s="36"/>
       <c r="M26" s="50" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="N26" s="36">
         <v>500</v>
@@ -9002,14 +9032,14 @@
     </row>
     <row r="27" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="46" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B27" s="36">
         <v>500</v>
       </c>
       <c r="J27" s="36"/>
       <c r="M27" s="50" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="N27" s="36">
         <v>500</v>
@@ -9017,14 +9047,14 @@
     </row>
     <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="46" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B28" s="36">
         <v>3000</v>
       </c>
       <c r="J28" s="36"/>
       <c r="M28" s="50" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="N28" s="36">
         <v>500</v>
@@ -9032,14 +9062,14 @@
     </row>
     <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="46" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B29" s="36">
         <v>500</v>
       </c>
       <c r="J29" s="36"/>
       <c r="M29" s="51" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="N29" s="36">
         <v>500</v>
@@ -9047,14 +9077,14 @@
     </row>
     <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="46" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B30" s="36">
         <v>300</v>
       </c>
       <c r="J30" s="36"/>
       <c r="M30" s="51" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="N30" s="36">
         <v>500</v>
@@ -9062,14 +9092,14 @@
     </row>
     <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="46" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B31" s="36">
         <v>200</v>
       </c>
       <c r="J31" s="36"/>
       <c r="M31" s="50" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="N31" s="36">
         <v>500</v>
@@ -9077,14 +9107,14 @@
     </row>
     <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="46" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B32" s="36">
         <v>200</v>
       </c>
       <c r="J32" s="36"/>
       <c r="M32" s="50" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="N32" s="36">
         <v>500</v>
@@ -9092,14 +9122,14 @@
     </row>
     <row r="33" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="46" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B33" s="36">
         <v>500</v>
       </c>
       <c r="J33" s="36"/>
       <c r="M33" s="50" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="N33" s="36">
         <v>500</v>
@@ -9107,14 +9137,14 @@
     </row>
     <row r="34" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="46" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B34" s="36">
         <v>3000</v>
       </c>
       <c r="J34" s="36"/>
       <c r="M34" s="50" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="N34" s="36">
         <v>500</v>
@@ -9122,14 +9152,14 @@
     </row>
     <row r="35" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="46" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B35" s="36">
         <v>500</v>
       </c>
       <c r="J35" s="36"/>
       <c r="M35" s="50" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="N35" s="36">
         <v>500</v>
@@ -9137,14 +9167,14 @@
     </row>
     <row r="36" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="46" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B36" s="36">
         <v>3000</v>
       </c>
       <c r="J36" s="36"/>
       <c r="M36" s="50" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="N36" s="36">
         <v>500</v>
@@ -9152,14 +9182,14 @@
     </row>
     <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="46" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B37" s="36">
         <v>3000</v>
       </c>
       <c r="J37" s="36"/>
       <c r="M37" s="50" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="N37" s="36">
         <v>500</v>
@@ -9167,14 +9197,14 @@
     </row>
     <row r="38" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="46" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B38" s="36">
         <v>3000</v>
       </c>
       <c r="J38" s="36"/>
       <c r="M38" s="50" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="N38" s="36">
         <v>500</v>
@@ -9182,14 +9212,14 @@
     </row>
     <row r="39" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="46" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B39" s="36">
         <v>500</v>
       </c>
       <c r="J39" s="36"/>
       <c r="M39" s="50" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N39" s="36">
         <v>500</v>
@@ -9197,14 +9227,14 @@
     </row>
     <row r="40" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="46" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B40" s="36">
         <v>500</v>
       </c>
       <c r="J40" s="36"/>
       <c r="M40" s="50" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="N40" s="36">
         <v>500</v>
@@ -9212,14 +9242,14 @@
     </row>
     <row r="41" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="46" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B41" s="36">
         <v>500</v>
       </c>
       <c r="J41" s="36"/>
       <c r="M41" s="50" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N41" s="36">
         <v>500</v>
@@ -9227,14 +9257,14 @@
     </row>
     <row r="42" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="46" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B42" s="36">
         <v>500</v>
       </c>
       <c r="J42" s="36"/>
       <c r="M42" s="50" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N42" s="36">
         <v>500</v>
@@ -9242,14 +9272,14 @@
     </row>
     <row r="43" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="46" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B43" s="36">
         <v>500</v>
       </c>
       <c r="J43" s="36"/>
       <c r="M43" s="50" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="N43" s="36">
         <v>500</v>
@@ -9257,14 +9287,14 @@
     </row>
     <row r="44" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="46" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B44" s="36">
         <v>300</v>
       </c>
       <c r="J44" s="36"/>
       <c r="M44" s="50" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="N44" s="36">
         <v>500</v>
@@ -9272,14 +9302,14 @@
     </row>
     <row r="45" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="46" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B45" s="36">
         <v>300</v>
       </c>
       <c r="J45" s="36"/>
       <c r="M45" s="50" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="N45" s="36">
         <v>500</v>
@@ -9287,14 +9317,14 @@
     </row>
     <row r="46" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="46" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B46" s="36">
         <v>500</v>
       </c>
       <c r="J46" s="36"/>
       <c r="M46" s="50" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="N46" s="36">
         <v>500</v>
@@ -9302,14 +9332,14 @@
     </row>
     <row r="47" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="46" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B47" s="36">
         <v>100</v>
       </c>
       <c r="J47" s="36"/>
       <c r="M47" s="50" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="N47" s="36">
         <v>500</v>
@@ -9317,13 +9347,13 @@
     </row>
     <row r="48" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="46" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B48" s="36">
         <v>1500</v>
       </c>
       <c r="M48" s="50" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="N48" s="36">
         <v>500</v>
@@ -9331,13 +9361,13 @@
     </row>
     <row r="49" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="46" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B49" s="36">
         <v>1500</v>
       </c>
       <c r="M49" s="50" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="N49" s="36">
         <v>500</v>
@@ -9345,7 +9375,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M50" s="50" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="N50" s="36">
         <v>500</v>
@@ -9353,7 +9383,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M51" s="51" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N51" s="36">
         <v>500</v>
@@ -9361,7 +9391,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M52" s="50" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="N52" s="36">
         <v>500</v>
@@ -9369,7 +9399,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M53" s="50" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="N53" s="36">
         <v>500</v>
@@ -9377,7 +9407,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M54" s="50" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="N54" s="36">
         <v>500</v>
@@ -9385,7 +9415,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M55" s="50" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="N55" s="36">
         <v>500</v>
@@ -9393,7 +9423,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M56" s="50" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N56" s="36">
         <v>500</v>
@@ -9401,7 +9431,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M57" s="50" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="N57" s="36">
         <v>500</v>
@@ -9409,7 +9439,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M58" s="50" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N58" s="36">
         <v>500</v>
@@ -9417,7 +9447,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M59" s="50" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="N59" s="36">
         <v>500</v>
@@ -9425,7 +9455,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M60" s="50" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="N60" s="36">
         <v>500</v>
@@ -9433,7 +9463,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M61" s="50" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="N61" s="36">
         <v>500</v>
@@ -9441,7 +9471,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M62" s="50" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="N62" s="36">
         <v>500</v>
@@ -9449,7 +9479,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M63" s="50" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="N63" s="36">
         <v>500</v>
@@ -9457,7 +9487,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M64" s="50" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="N64" s="36">
         <v>500</v>
@@ -9465,7 +9495,7 @@
     </row>
     <row r="65" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M65" s="50" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="N65" s="36">
         <v>500</v>
@@ -9473,7 +9503,7 @@
     </row>
     <row r="66" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M66" s="50" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="N66" s="36">
         <v>500</v>
@@ -9481,7 +9511,7 @@
     </row>
     <row r="67" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M67" s="50" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="N67" s="36">
         <v>500</v>
@@ -9489,7 +9519,7 @@
     </row>
     <row r="68" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M68" s="50" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="N68" s="36">
         <v>500</v>
@@ -9497,7 +9527,7 @@
     </row>
     <row r="69" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M69" s="50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N69" s="36">
         <v>500</v>
@@ -9505,7 +9535,7 @@
     </row>
     <row r="70" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M70" s="50" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="N70" s="36">
         <v>500</v>
@@ -9513,7 +9543,7 @@
     </row>
     <row r="71" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M71" s="50" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="N71" s="36">
         <v>500</v>
@@ -9521,7 +9551,7 @@
     </row>
     <row r="72" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M72" s="50" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="N72" s="36">
         <v>500</v>
@@ -9529,7 +9559,7 @@
     </row>
     <row r="73" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M73" s="50" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="N73" s="36">
         <v>500</v>
@@ -9537,7 +9567,7 @@
     </row>
     <row r="74" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M74" s="50" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="N74" s="36">
         <v>500</v>
@@ -9545,7 +9575,7 @@
     </row>
     <row r="75" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M75" s="50" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="N75" s="36">
         <v>500</v>
@@ -9553,7 +9583,7 @@
     </row>
     <row r="76" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M76" s="50" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="N76" s="36">
         <v>500</v>
@@ -9561,7 +9591,7 @@
     </row>
     <row r="77" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M77" s="50" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="N77" s="36">
         <v>500</v>
@@ -9569,7 +9599,7 @@
     </row>
     <row r="78" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M78" s="50" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="N78" s="36">
         <v>500</v>
@@ -9577,7 +9607,7 @@
     </row>
     <row r="79" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M79" s="50" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="N79" s="36">
         <v>500</v>
@@ -9585,7 +9615,7 @@
     </row>
     <row r="80" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M80" s="50" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="N80" s="36">
         <v>500</v>
@@ -9593,7 +9623,7 @@
     </row>
     <row r="81" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M81" s="51" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="N81" s="36">
         <v>500</v>
@@ -9601,7 +9631,7 @@
     </row>
     <row r="82" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M82" s="51" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="N82" s="36">
         <v>500</v>
@@ -9609,7 +9639,7 @@
     </row>
     <row r="83" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M83" s="51" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="N83" s="36">
         <v>500</v>
@@ -9617,7 +9647,7 @@
     </row>
     <row r="84" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M84" s="51" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="N84" s="36">
         <v>500</v>
@@ -9625,7 +9655,7 @@
     </row>
     <row r="85" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M85" s="51" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="N85" s="36">
         <v>500</v>
@@ -9633,7 +9663,7 @@
     </row>
     <row r="86" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M86" s="51" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N86" s="36">
         <v>500</v>
@@ -9641,7 +9671,7 @@
     </row>
     <row r="87" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M87" s="51" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="N87" s="36">
         <v>500</v>
@@ -9649,7 +9679,7 @@
     </row>
     <row r="88" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M88" s="51" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="N88" s="36">
         <v>500</v>
@@ -9657,7 +9687,7 @@
     </row>
     <row r="89" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M89" s="51" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="N89" s="36">
         <v>500</v>
@@ -9665,7 +9695,7 @@
     </row>
     <row r="90" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M90" s="51" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="N90" s="36">
         <v>500</v>
@@ -9673,7 +9703,7 @@
     </row>
     <row r="91" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M91" s="51" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N91" s="36">
         <v>500</v>
@@ -9681,7 +9711,7 @@
     </row>
     <row r="92" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M92" s="51" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="N92" s="36">
         <v>500</v>
@@ -9689,7 +9719,7 @@
     </row>
     <row r="93" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M93" s="51" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="N93" s="36">
         <v>500</v>
@@ -9697,7 +9727,7 @@
     </row>
     <row r="94" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M94" s="51" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="N94" s="36">
         <v>500</v>
@@ -9705,7 +9735,7 @@
     </row>
     <row r="95" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M95" s="51" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="N95" s="36">
         <v>500</v>
@@ -9713,7 +9743,7 @@
     </row>
     <row r="96" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M96" s="51" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="N96" s="36">
         <v>500</v>
@@ -9721,7 +9751,7 @@
     </row>
     <row r="97" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M97" s="51" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="N97" s="36">
         <v>500</v>
@@ -9729,7 +9759,7 @@
     </row>
     <row r="98" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M98" s="51" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="N98" s="36">
         <v>500</v>
@@ -9737,7 +9767,7 @@
     </row>
     <row r="99" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M99" s="51" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="N99" s="36">
         <v>500</v>
@@ -9772,44 +9802,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B1" s="87" t="s">
-        <v>639</v>
-      </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
+      <c r="B1" s="88" t="s">
+        <v>637</v>
+      </c>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G2" s="54" t="s">
         <v>627</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>629</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="55" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -9828,12 +9858,12 @@
         <v>17928.310092869266</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="55" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C4" s="1">
         <v>70</v>
@@ -9852,12 +9882,12 @@
         <v>20450.199202763717</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="55" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C5" s="1">
         <v>70</v>
@@ -9876,12 +9906,12 @@
         <v>17928.310092869266</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="61" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
@@ -9900,12 +9930,12 @@
         <v>26673.32005306815</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="61" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C8" s="1">
         <v>13</v>
@@ -9924,12 +9954,12 @@
         <v>25646.741834119304</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="61" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C9" s="1">
         <v>14</v>
@@ -9948,12 +9978,12 @@
         <v>25494.974746830583</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="61" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C10" s="62">
         <v>13</v>
@@ -9972,7 +10002,7 @@
         <v>27194.652592097438</v>
       </c>
       <c r="H10" s="62" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -9999,7 +10029,7 @@
         <v>16837.975406247318</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -10023,7 +10053,7 @@
         <v>16826.748539321747</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -10047,7 +10077,7 @@
         <v>16829.84072561378</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -10071,7 +10101,7 @@
         <v>16730.274090480816</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -10095,7 +10125,7 @@
         <v>16311.131524278082</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
@@ -10119,12 +10149,12 @@
         <v>16652.356224889096</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="18" spans="2:11" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="56" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C18" s="62">
         <v>8</v>
@@ -10143,7 +10173,7 @@
         <v>16893.404162933275</v>
       </c>
       <c r="H18" s="62" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -10151,7 +10181,7 @@
     </row>
     <row r="19" spans="2:11" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="56" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C19" s="62">
         <v>8.5</v>
@@ -10170,7 +10200,7 @@
         <v>16896.786118014283</v>
       </c>
       <c r="H19" s="62" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
@@ -10178,7 +10208,7 @@
     </row>
     <row r="20" spans="2:11" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="56" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C20" s="62">
         <v>6.5</v>
@@ -10197,7 +10227,7 @@
         <v>16370.578081115342</v>
       </c>
       <c r="H20" s="62" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -10205,7 +10235,7 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="57" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C22" s="1">
         <v>30</v>
@@ -10224,12 +10254,12 @@
         <v>7248.5374350863449</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="57" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C23" s="1">
         <v>40</v>
@@ -10248,12 +10278,12 @@
         <v>7264.9110640673516</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="24" spans="2:11" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="57" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C24" s="62">
         <v>40</v>
@@ -10272,7 +10302,7 @@
         <v>7842.3117406387628</v>
       </c>
       <c r="H24" s="62" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -10280,7 +10310,7 @@
     </row>
     <row r="25" spans="2:11" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="57" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C25" s="62">
         <v>30</v>
@@ -10299,7 +10329,7 @@
         <v>7692.2713918888767</v>
       </c>
       <c r="H25" s="62" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -10326,7 +10356,7 @@
         <v>22736.143413473052</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
@@ -10350,7 +10380,7 @@
         <v>16687.40304976422</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
@@ -10374,7 +10404,7 @@
         <v>27076.29936490925</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
@@ -10398,7 +10428,7 @@
         <v>30138.483432081292</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
@@ -10422,7 +10452,7 @@
         <v>43684.068037720077</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
@@ -10446,7 +10476,7 @@
         <v>43684.068037720077</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
@@ -10470,12 +10500,12 @@
         <v>68723.830267177022</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="34" spans="2:11" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="58" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C34" s="62">
         <v>34</v>
@@ -10494,7 +10524,7 @@
         <v>35469.159688687927</v>
       </c>
       <c r="H34" s="62" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I34"/>
       <c r="J34"/>
@@ -10521,7 +10551,7 @@
         <v>6048.8088481701516</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
@@ -10545,7 +10575,7 @@
         <v>5887.4119674649428</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
@@ -10569,7 +10599,7 @@
         <v>6081.0874155219826</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
@@ -10593,7 +10623,7 @@
         <v>6564.464764703891</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
@@ -10617,7 +10647,7 @@
         <v>5247.4873734152916</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
@@ -10641,7 +10671,7 @@
         <v>5866.0254037844388</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
@@ -10665,7 +10695,7 @@
         <v>6711.1180555414639</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
@@ -10689,12 +10719,12 @@
         <v>5354.9647869859773</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="44" spans="2:11" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="59" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C44" s="62">
         <v>5</v>
@@ -10713,7 +10743,7 @@
         <v>5866.0254037844388</v>
       </c>
       <c r="H44" s="62" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I44"/>
       <c r="J44"/>
@@ -10740,7 +10770,7 @@
         <v>3503.2896501377973</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
@@ -10764,7 +10794,7 @@
         <v>3498.5421613477106</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
@@ -10788,7 +10818,7 @@
         <v>3562.2815623687957</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
@@ -10812,7 +10842,7 @@
         <v>4212.2512015499178</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
@@ -10836,12 +10866,12 @@
         <v>4298.8405730891973</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="60" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C51" s="1">
         <v>6</v>
@@ -10860,7 +10890,7 @@
         <v>3529.7421266914034</v>
       </c>
       <c r="H51" s="62" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
@@ -10877,8 +10907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7B5FA8-4B79-470C-812E-E18ABD7515C8}">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10889,7 +10919,7 @@
     <col min="4" max="4" width="9" style="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -10901,10 +10931,10 @@
         <v>221</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>225</v>
@@ -10913,21 +10943,21 @@
         <v>222</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2" s="52">
         <v>50</v>
@@ -10936,21 +10966,21 @@
         <v>2000</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>257</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>259</v>
       </c>
       <c r="E3" s="52">
         <v>50</v>
@@ -10959,21 +10989,21 @@
         <v>2000</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E4" s="52">
         <v>50</v>
@@ -10982,21 +11012,21 @@
         <v>2000</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E5" s="52">
         <v>50</v>
@@ -11005,18 +11035,18 @@
         <v>2000</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>224</v>
@@ -11028,21 +11058,21 @@
         <v>2000</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E7" s="52">
         <v>200</v>
@@ -11051,21 +11081,21 @@
         <v>2000</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>250</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>252</v>
       </c>
       <c r="E8" s="52">
         <v>150</v>
@@ -11074,18 +11104,18 @@
         <v>2000</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>224</v>
@@ -11097,18 +11127,18 @@
         <v>2000</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>224</v>
@@ -11120,21 +11150,21 @@
         <v>1500</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>316</v>
+        <v>704</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E11" s="13">
         <v>50</v>
@@ -11143,21 +11173,21 @@
         <v>2000</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>316</v>
+        <v>705</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E12" s="13">
         <v>50</v>
@@ -11166,21 +11196,21 @@
         <v>2000</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>316</v>
+        <v>705</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E13" s="13">
         <v>50</v>
@@ -11189,21 +11219,21 @@
         <v>2000</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>316</v>
+        <v>705</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E14" s="13">
         <v>50</v>
@@ -11212,21 +11242,21 @@
         <v>2000</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>316</v>
+        <v>705</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E15" s="13">
         <v>50</v>
@@ -11235,21 +11265,21 @@
         <v>2000</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>316</v>
+        <v>705</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E16" s="13">
         <v>50</v>
@@ -11258,21 +11288,21 @@
         <v>2000</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>316</v>
+        <v>705</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E17" s="52">
         <v>200</v>
@@ -11281,21 +11311,21 @@
         <v>1000</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>316</v>
+        <v>705</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E18" s="52">
         <v>200</v>
@@ -11304,21 +11334,21 @@
         <v>1000</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>316</v>
+        <v>704</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E19" s="52">
         <v>1000</v>
@@ -11327,21 +11357,21 @@
         <v>1000</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>316</v>
+        <v>705</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E20" s="52">
         <v>100</v>
@@ -11350,21 +11380,21 @@
         <v>1000</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>316</v>
+        <v>705</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E21" s="52">
         <v>100</v>
@@ -11373,21 +11403,21 @@
         <v>1000</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>316</v>
+        <v>705</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E22" s="13">
         <v>1000</v>
@@ -11396,21 +11426,21 @@
         <v>200</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>269</v>
+        <v>710</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E23" s="13">
         <v>500</v>
@@ -11419,21 +11449,21 @@
         <v>400</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E24" s="13">
         <v>500</v>
@@ -11442,21 +11472,21 @@
         <v>400</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E25" s="13">
         <v>500</v>
@@ -11465,21 +11495,21 @@
         <v>400</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E26" s="13">
         <v>500</v>
@@ -11488,21 +11518,21 @@
         <v>400</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E27" s="13">
         <v>500</v>
@@ -11511,21 +11541,21 @@
         <v>400</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E28" s="13">
         <v>500</v>
@@ -11534,21 +11564,21 @@
         <v>400</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E29" s="13">
         <v>500</v>
@@ -11557,21 +11587,21 @@
         <v>400</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E30" s="13">
         <v>1500</v>
@@ -11580,7 +11610,7 @@
         <v>200</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -11588,13 +11618,13 @@
         <v>226</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E31" s="13">
         <v>1500</v>
@@ -11603,7 +11633,7 @@
         <v>200</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -11611,13 +11641,13 @@
         <v>227</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E32" s="13">
         <v>1500</v>
@@ -11626,7 +11656,7 @@
         <v>200</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -11634,13 +11664,13 @@
         <v>228</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E33" s="13">
         <v>1500</v>
@@ -11649,7 +11679,7 @@
         <v>200</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -11657,13 +11687,13 @@
         <v>229</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E34" s="13">
         <v>1500</v>
@@ -11672,7 +11702,7 @@
         <v>200</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -11680,13 +11710,13 @@
         <v>230</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E35" s="13">
         <v>1500</v>
@@ -11695,7 +11725,7 @@
         <v>200</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -11703,13 +11733,13 @@
         <v>231</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E36" s="13">
         <v>1500</v>
@@ -11718,21 +11748,21 @@
         <v>200</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E37" s="13">
         <v>3000</v>
@@ -11741,21 +11771,21 @@
         <v>100</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>262</v>
+        <v>709</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E38" s="13">
         <v>6000</v>
@@ -11764,21 +11794,21 @@
         <v>50</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>270</v>
+        <v>711</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E39" s="52">
         <v>2000</v>
@@ -11787,7 +11817,7 @@
         <v>75</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>270</v>
+        <v>704</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -11795,13 +11825,13 @@
         <v>232</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E40" s="52">
         <v>2000</v>
@@ -11810,7 +11840,7 @@
         <v>75</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>270</v>
+        <v>704</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -11818,13 +11848,13 @@
         <v>233</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E41" s="52">
         <v>1200</v>
@@ -11833,21 +11863,21 @@
         <v>120</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E42" s="52">
         <v>1200</v>
@@ -11856,21 +11886,21 @@
         <v>120</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>234</v>
+        <v>707</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E43" s="52">
         <v>1200</v>
@@ -11879,21 +11909,21 @@
         <v>120</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>270</v>
+        <v>703</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E44" s="52">
         <v>1200</v>
@@ -11902,21 +11932,21 @@
         <v>120</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E45" s="52">
         <v>1200</v>
@@ -11925,21 +11955,21 @@
         <v>120</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>243</v>
+        <v>706</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E46" s="52">
         <v>1200</v>
@@ -11948,21 +11978,21 @@
         <v>120</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>270</v>
+        <v>703</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E47" s="52">
         <v>1200</v>
@@ -11971,21 +12001,21 @@
         <v>120</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E48" s="52">
         <v>1200</v>
@@ -11994,21 +12024,21 @@
         <v>120</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B49" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D49" s="32" t="s">
         <v>300</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>302</v>
       </c>
       <c r="E49" s="13">
         <v>20000</v>
@@ -12017,21 +12047,21 @@
         <v>15</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E50" s="13">
         <v>20000</v>
@@ -12040,21 +12070,21 @@
         <v>15</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E51" s="13">
         <v>20000</v>
@@ -12063,7 +12093,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>263</v>
+        <v>708</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
@@ -12078,10 +12108,10 @@
         <v>28</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E52" s="13">
         <v>10</v>
@@ -12103,10 +12133,10 @@
         <v>29</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E53" s="13">
         <v>10</v>
@@ -12128,10 +12158,10 @@
         <v>22</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E54" s="13">
         <v>10</v>
@@ -12153,10 +12183,10 @@
         <v>104</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E55" s="13">
         <v>10</v>
@@ -12178,10 +12208,10 @@
         <v>31</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E56" s="13">
         <v>20</v>
@@ -12203,10 +12233,10 @@
         <v>75</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E57" s="13">
         <v>20</v>
@@ -12228,10 +12258,10 @@
         <v>20</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E58" s="13">
         <v>25</v>
@@ -12253,10 +12283,10 @@
         <v>8</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E59" s="13">
         <v>30</v>
@@ -12278,10 +12308,10 @@
         <v>101</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E60" s="13">
         <v>30</v>
@@ -12303,10 +12333,10 @@
         <v>107</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E61" s="13">
         <v>30</v>
@@ -12328,10 +12358,10 @@
         <v>30</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E62" s="13">
         <v>80</v>
@@ -12353,10 +12383,10 @@
         <v>72</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E63" s="13">
         <v>200</v>
@@ -12378,10 +12408,10 @@
         <v>17</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E64" s="13">
         <v>200</v>
@@ -12403,10 +12433,10 @@
         <v>27</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E65" s="13">
         <v>300</v>
@@ -12428,10 +12458,10 @@
         <v>16</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E66" s="13">
         <v>400</v>
@@ -12453,10 +12483,10 @@
         <v>34</v>
       </c>
       <c r="C67" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="D67" s="32" t="s">
         <v>317</v>
-      </c>
-      <c r="D67" s="32" t="s">
-        <v>319</v>
       </c>
       <c r="E67" s="13">
         <v>1000</v>
@@ -12478,10 +12508,10 @@
         <v>35</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E68" s="13">
         <v>2000</v>
@@ -12594,10 +12624,10 @@
       </c>
       <c r="E1" s="79"/>
       <c r="F1" s="80" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G1" s="77" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -12657,7 +12687,7 @@
       </c>
       <c r="E4" s="79"/>
       <c r="F4" s="79" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G4" s="79">
         <v>150</v>
@@ -13312,10 +13342,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="82" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B46" s="82" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C46" s="83">
         <v>27195</v>
@@ -13326,10 +13356,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C47" s="84">
         <v>16893</v>
@@ -13340,10 +13370,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C48" s="84">
         <v>16897</v>
@@ -13354,10 +13384,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C49" s="84">
         <v>16371</v>
@@ -13368,10 +13398,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C50" s="84">
         <v>7842</v>
@@ -13382,10 +13412,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C51" s="84">
         <v>7692</v>
@@ -13396,10 +13426,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C52" s="84">
         <v>35469</v>
@@ -13410,10 +13440,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C53" s="84">
         <v>5866</v>
@@ -13424,10 +13454,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="63" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B54" s="63" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C54" s="85">
         <v>3530</v>
@@ -13470,21 +13500,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="88" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="88" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="89"/>
-      <c r="I1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91"/>
       <c r="K1" s="1" t="s">
         <v>143</v>
       </c>
@@ -13498,7 +13528,7 @@
         <v>149</v>
       </c>
       <c r="O1" s="54" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="Q1"/>
       <c r="R1"/>
@@ -13809,7 +13839,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B8" s="13">
         <v>3530</v>
@@ -13885,7 +13915,7 @@
         <v>20</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H10" s="13">
         <v>35469</v>
@@ -13905,7 +13935,7 @@
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="12" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E11" s="13">
         <v>5866</v>
@@ -14018,16 +14048,16 @@
       <c r="V16"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="88" t="s">
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="89" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="89"/>
-      <c r="F17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
       <c r="Q17"/>
       <c r="R17"/>
       <c r="S17"/>
@@ -14150,7 +14180,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E22" s="13">
         <v>27195</v>
@@ -14207,7 +14237,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B25" s="13">
         <v>16893</v>
@@ -14227,7 +14257,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B26" s="13">
         <v>16897</v>
@@ -14247,7 +14277,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B27" s="13">
         <v>16371</v>
@@ -14383,7 +14413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC62584-50E9-49FE-A8A3-3C18E04663AE}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -15361,7 +15391,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F26" sqref="E26:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15480,11 +15510,11 @@
       <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="92" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15514,13 +15544,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -15531,7 +15561,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -15539,13 +15569,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B3" s="1">
         <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -15553,13 +15583,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B4" s="1">
         <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -15567,13 +15597,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B5" s="1">
         <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E5" s="1">
         <v>1.5</v>
@@ -15581,13 +15611,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B6" s="1">
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E6" s="1">
         <v>1.5</v>
@@ -15595,13 +15625,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B7" s="1">
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
@@ -15609,7 +15639,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D8" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E8" s="1">
         <v>30</v>
@@ -15617,10 +15647,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -15631,7 +15661,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -15639,10 +15669,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -15653,7 +15683,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -15661,7 +15691,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D13" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -15669,7 +15699,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D14" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E14" s="1">
         <v>1.5</v>
@@ -15677,7 +15707,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D15" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -15685,7 +15715,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E16" s="1">
         <v>2.5</v>
@@ -15693,7 +15723,7 @@
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D17" s="62" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E17" s="1">
         <v>1.5</v>
